--- a/Risk and Threat Register With Scoring Sample.xlsx
+++ b/Risk and Threat Register With Scoring Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cjcollins-my.sharepoint.com/personal/chris_cjcollins_tech/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1206" documentId="8_{44025457-294A-4AEF-9649-5D5D3CC58284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A990711-7EA1-410C-B864-CE67E9F2A20E}"/>
+  <xr:revisionPtr revIDLastSave="1218" documentId="8_{44025457-294A-4AEF-9649-5D5D3CC58284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40F97C4B-14FD-40D0-83AE-072C0F343642}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="13" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="220">
   <si>
     <t>ID</t>
   </si>
@@ -830,6 +830,45 @@
       </rPr>
       <t xml:space="preserve"> sheet - Update all the treatment details options and enter any relevant notes.  Repeat as needed.</t>
     </r>
+  </si>
+  <si>
+    <t>To Customise:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Refer to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>lkOWASPRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sheet which has all the lookup tables for the drop down lists used in the Asessment sheets</t>
+    </r>
+  </si>
+  <si>
+    <t>- Note that OWASP's formula is simply to average all the scores to form the final score.</t>
+  </si>
+  <si>
+    <t>- You could consider weighting certain columns, e.g. I have updated the 'Business Impact Score' to give precedence to high financial impact  values</t>
+  </si>
+  <si>
+    <t>- The main formulae for this are in columns H, M, S, X in AssessInherent and I, N, T, Y in AssessResidual</t>
+  </si>
+  <si>
+    <t>- (and sorry about all the LEFT commands in the formulae :) I wanted something to play nice with the drop down lists)</t>
   </si>
 </sst>
 </file>
@@ -1717,7 +1756,7 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1742,7 +1781,7 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1821,16 +1860,16 @@
     <xf numFmtId="0" fontId="9" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1888,42 +1927,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="110">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <font>
         <color theme="1"/>
@@ -1991,393 +1995,33 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="1"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="1"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="1"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2421,63 +2065,18 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2590,6 +2189,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2790,9 +2393,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E06E8B1-5B6C-4759-8ADF-C0C29B50C12B}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2841,6 +2446,36 @@
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="115" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="115" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="115" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="115" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="115" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="115" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2876,7 +2511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -3993,41 +3628,41 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D4:D29">
-    <cfRule type="expression" dxfId="109" priority="8">
+    <cfRule type="expression" dxfId="27" priority="8">
       <formula>"f2*g2 &gt; 10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F29">
-    <cfRule type="cellIs" dxfId="108" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="10" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="greaterThanOrEqual">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="between">
       <formula>4</formula>
       <formula>6.99999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K29">
-    <cfRule type="expression" dxfId="104" priority="3">
+    <cfRule type="expression" dxfId="22" priority="3">
       <formula>"f2*g2 &gt; 10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M29">
-    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="greaterThanOrEqual">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="between">
       <formula>4</formula>
       <formula>6.99999</formula>
     </cfRule>
@@ -4071,11 +3706,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A57B67-295A-41EA-85B7-C50BD9D19ABB}">
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4277,7 +3912,7 @@
         <v>205</v>
       </c>
       <c r="H4" s="52">
-        <f>(LEFT(D4,1)+LEFT(E4,1)+LEFT(F4,1)+LEFT(G4,1))/4</f>
+        <f t="shared" ref="H4:H30" si="0">(LEFT(D4,1)+LEFT(E4,1)+LEFT(F4,1)+LEFT(G4,1))/4</f>
         <v>2.75</v>
       </c>
       <c r="I4" s="37" t="s">
@@ -4293,7 +3928,7 @@
         <v>182</v>
       </c>
       <c r="M4" s="52">
-        <f>(LEFT(I4,1)+LEFT(J4,1)+LEFT(K4,1)+LEFT(L4,1))/4</f>
+        <f t="shared" ref="M4:M30" si="1">(LEFT(I4,1)+LEFT(J4,1)+LEFT(K4,1)+LEFT(L4,1))/4</f>
         <v>7</v>
       </c>
       <c r="N4" s="53">
@@ -4329,11 +3964,11 @@
         <v>5</v>
       </c>
       <c r="X4" s="52">
-        <f>(LEFT(T4,1)+LEFT(U4,1)+LEFT(V4,1)+LEFT(W4,1))/4</f>
+        <f t="shared" ref="X4:X30" si="2">(LEFT(T4,1)+LEFT(U4,1)+LEFT(V4,1)+LEFT(W4,1))/4</f>
         <v>5</v>
       </c>
       <c r="Y4" s="53">
-        <f>(S4 + X4)/2</f>
+        <f t="shared" ref="Y4:Y30" si="3">(S4 + X4)/2</f>
         <v>4.875</v>
       </c>
       <c r="Z4" s="53">
@@ -4341,7 +3976,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="94">
         <f>IF(Risk!A5&lt;&gt;"",Risk!A5,"")</f>
         <v>1.2</v>
@@ -4367,7 +4002,7 @@
         <v>180</v>
       </c>
       <c r="H5" s="52">
-        <f>(LEFT(D5,1)+LEFT(E5,1)+LEFT(F5,1)+LEFT(G5,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="37" t="s">
@@ -4383,11 +4018,11 @@
         <v>180</v>
       </c>
       <c r="M5" s="52">
-        <f>(LEFT(I5,1)+LEFT(J5,1)+LEFT(K5,1)+LEFT(L5,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N5" s="54">
-        <f>(H5 + M5)/2</f>
+        <f t="shared" ref="N5:N30" si="4">(H5 + M5)/2</f>
         <v>0</v>
       </c>
       <c r="O5" s="37" t="s">
@@ -4403,7 +4038,7 @@
         <v>180</v>
       </c>
       <c r="S5" s="52">
-        <f t="shared" ref="S5:S11" si="0">IF(LEFT(O5,1)="9",LEFT(O5,1),(LEFT(O5,1)+LEFT(P5,1)+LEFT(Q5,1)+LEFT(R5,1))/4)</f>
+        <f t="shared" ref="S5:S11" si="5">IF(LEFT(O5,1)="9",LEFT(O5,1),(LEFT(O5,1)+LEFT(P5,1)+LEFT(Q5,1)+LEFT(R5,1))/4)</f>
         <v>0</v>
       </c>
       <c r="T5" s="37" t="s">
@@ -4419,15 +4054,15 @@
         <v>180</v>
       </c>
       <c r="X5" s="52">
-        <f>(LEFT(T5,1)+LEFT(U5,1)+LEFT(V5,1)+LEFT(W5,1))/4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y5" s="54">
-        <f>(S5 + X5)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z5" s="53">
-        <f t="shared" ref="Z5:Z11" si="1">(N5 + Y5)/2</f>
+        <f t="shared" ref="Z5:Z11" si="6">(N5 + Y5)/2</f>
         <v>0</v>
       </c>
     </row>
@@ -4457,7 +4092,7 @@
         <v>180</v>
       </c>
       <c r="H6" s="52">
-        <f>(LEFT(D6,1)+LEFT(E6,1)+LEFT(F6,1)+LEFT(G6,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="37" t="s">
@@ -4473,11 +4108,11 @@
         <v>180</v>
       </c>
       <c r="M6" s="52">
-        <f>(LEFT(I6,1)+LEFT(J6,1)+LEFT(K6,1)+LEFT(L6,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N6" s="53">
-        <f>(H6 + M6)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O6" s="37" t="s">
@@ -4493,7 +4128,7 @@
         <v>180</v>
       </c>
       <c r="S6" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T6" s="37" t="s">
@@ -4509,15 +4144,15 @@
         <v>180</v>
       </c>
       <c r="X6" s="52">
-        <f>(LEFT(T6,1)+LEFT(U6,1)+LEFT(V6,1)+LEFT(W6,1))/4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y6" s="53">
-        <f>(S6 + X6)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z6" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4547,7 +4182,7 @@
         <v>180</v>
       </c>
       <c r="H7" s="52">
-        <f>(LEFT(D7,1)+LEFT(E7,1)+LEFT(F7,1)+LEFT(G7,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="37" t="s">
@@ -4563,11 +4198,11 @@
         <v>180</v>
       </c>
       <c r="M7" s="52">
-        <f>(LEFT(I7,1)+LEFT(J7,1)+LEFT(K7,1)+LEFT(L7,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N7" s="53">
-        <f>(H7 + M7)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O7" s="37" t="s">
@@ -4583,7 +4218,7 @@
         <v>180</v>
       </c>
       <c r="S7" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T7" s="37" t="s">
@@ -4599,19 +4234,19 @@
         <v>180</v>
       </c>
       <c r="X7" s="52">
-        <f>(LEFT(T7,1)+LEFT(U7,1)+LEFT(V7,1)+LEFT(W7,1))/4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y7" s="53">
-        <f>(S7 + X7)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z7" s="53">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="94">
         <f>IF(Risk!A8&lt;&gt;"",Risk!A8,"")</f>
         <v>1.5</v>
@@ -4637,7 +4272,7 @@
         <v>205</v>
       </c>
       <c r="H8" s="52">
-        <f>(LEFT(D8,1)+LEFT(E8,1)+LEFT(F8,1)+LEFT(G8,1))/4</f>
+        <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
       <c r="I8" s="37" t="s">
@@ -4653,11 +4288,11 @@
         <v>182</v>
       </c>
       <c r="M8" s="52">
-        <f>(LEFT(I8,1)+LEFT(J8,1)+LEFT(K8,1)+LEFT(L8,1))/4</f>
+        <f t="shared" si="1"/>
         <v>6.25</v>
       </c>
       <c r="N8" s="53">
-        <f>(H8 + M8)/2</f>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="O8" s="37" t="s">
@@ -4673,7 +4308,7 @@
         <v>2</v>
       </c>
       <c r="S8" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
       <c r="T8" s="37" t="s">
@@ -4689,19 +4324,19 @@
         <v>201</v>
       </c>
       <c r="X8" s="52">
-        <f>(LEFT(T8,1)+LEFT(U8,1)+LEFT(V8,1)+LEFT(W8,1))/4</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Y8" s="53">
-        <f>(S8 + X8)/2</f>
+        <f t="shared" si="3"/>
         <v>3.75</v>
       </c>
       <c r="Z8" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4.125</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="94">
         <f>IF(Risk!A9&lt;&gt;"",Risk!A9,"")</f>
         <v>1.6</v>
@@ -4727,7 +4362,7 @@
         <v>180</v>
       </c>
       <c r="H9" s="52">
-        <f>(LEFT(D9,1)+LEFT(E9,1)+LEFT(F9,1)+LEFT(G9,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="37" t="s">
@@ -4743,11 +4378,11 @@
         <v>180</v>
       </c>
       <c r="M9" s="52">
-        <f>(LEFT(I9,1)+LEFT(J9,1)+LEFT(K9,1)+LEFT(L9,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N9" s="53">
-        <f>(H9 + M9)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O9" s="37" t="s">
@@ -4763,7 +4398,7 @@
         <v>180</v>
       </c>
       <c r="S9" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T9" s="37" t="s">
@@ -4779,19 +4414,19 @@
         <v>180</v>
       </c>
       <c r="X9" s="52">
-        <f>(LEFT(T9,1)+LEFT(U9,1)+LEFT(V9,1)+LEFT(W9,1))/4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y9" s="53">
-        <f>(S9 + X9)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z9" s="53">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="94">
         <f>IF(Risk!A10&lt;&gt;"",Risk!A10,"")</f>
         <v>1.7</v>
@@ -4817,7 +4452,7 @@
         <v>180</v>
       </c>
       <c r="H10" s="52">
-        <f>(LEFT(D10,1)+LEFT(E10,1)+LEFT(F10,1)+LEFT(G10,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="37" t="s">
@@ -4833,11 +4468,11 @@
         <v>180</v>
       </c>
       <c r="M10" s="52">
-        <f>(LEFT(I10,1)+LEFT(J10,1)+LEFT(K10,1)+LEFT(L10,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N10" s="53">
-        <f>(H10 + M10)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O10" s="37" t="s">
@@ -4853,7 +4488,7 @@
         <v>180</v>
       </c>
       <c r="S10" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T10" s="37" t="s">
@@ -4869,19 +4504,19 @@
         <v>180</v>
       </c>
       <c r="X10" s="52">
-        <f>(LEFT(T10,1)+LEFT(U10,1)+LEFT(V10,1)+LEFT(W10,1))/4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y10" s="53">
-        <f>(S10 + X10)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z10" s="53">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="94">
         <f>IF(Risk!A11&lt;&gt;"",Risk!A11,"")</f>
         <v>1.8</v>
@@ -4907,7 +4542,7 @@
         <v>180</v>
       </c>
       <c r="H11" s="52">
-        <f>(LEFT(D11,1)+LEFT(E11,1)+LEFT(F11,1)+LEFT(G11,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="37" t="s">
@@ -4923,11 +4558,11 @@
         <v>180</v>
       </c>
       <c r="M11" s="52">
-        <f>(LEFT(I11,1)+LEFT(J11,1)+LEFT(K11,1)+LEFT(L11,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11" s="53">
-        <f>(H11 + M11)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O11" s="37" t="s">
@@ -4943,7 +4578,7 @@
         <v>180</v>
       </c>
       <c r="S11" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T11" s="37" t="s">
@@ -4959,19 +4594,19 @@
         <v>180</v>
       </c>
       <c r="X11" s="52">
-        <f>(LEFT(T11,1)+LEFT(U11,1)+LEFT(V11,1)+LEFT(W11,1))/4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y11" s="53">
-        <f>(S11 + X11)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z11" s="53">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="str">
         <f>IF(Risk!A12&lt;&gt;"",Risk!A12,"")</f>
         <v/>
@@ -4997,7 +4632,7 @@
         <v>180</v>
       </c>
       <c r="H12" s="52">
-        <f>(LEFT(D12,1)+LEFT(E12,1)+LEFT(F12,1)+LEFT(G12,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="37" t="s">
@@ -5013,11 +4648,11 @@
         <v>180</v>
       </c>
       <c r="M12" s="52">
-        <f>(LEFT(I12,1)+LEFT(J12,1)+LEFT(K12,1)+LEFT(L12,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N12" s="53">
-        <f>(H12 + M12)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O12" s="37" t="s">
@@ -5033,7 +4668,7 @@
         <v>180</v>
       </c>
       <c r="S12" s="52">
-        <f t="shared" ref="S12:S30" si="2">IF(LEFT(O12,1)="9",LEFT(O12,1),(LEFT(O12,1)+LEFT(P12,1)+LEFT(Q12,1)+LEFT(R12,1))/4)</f>
+        <f t="shared" ref="S12:S30" si="7">IF(LEFT(O12,1)="9",LEFT(O12,1),(LEFT(O12,1)+LEFT(P12,1)+LEFT(Q12,1)+LEFT(R12,1))/4)</f>
         <v>0</v>
       </c>
       <c r="T12" s="37" t="s">
@@ -5049,19 +4684,19 @@
         <v>180</v>
       </c>
       <c r="X12" s="52">
-        <f>(LEFT(T12,1)+LEFT(U12,1)+LEFT(V12,1)+LEFT(W12,1))/4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y12" s="53">
-        <f>(S12 + X12)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z12" s="53">
-        <f t="shared" ref="Z12:Z30" si="3">(N12 + Y12)/2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Z12:Z30" si="8">(N12 + Y12)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="94" t="str">
         <f>IF(Risk!A13&lt;&gt;"",Risk!A13,"")</f>
         <v/>
@@ -5087,7 +4722,7 @@
         <v>180</v>
       </c>
       <c r="H13" s="52">
-        <f>(LEFT(D13,1)+LEFT(E13,1)+LEFT(F13,1)+LEFT(G13,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="37" t="s">
@@ -5103,11 +4738,11 @@
         <v>180</v>
       </c>
       <c r="M13" s="52">
-        <f>(LEFT(I13,1)+LEFT(J13,1)+LEFT(K13,1)+LEFT(L13,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N13" s="53">
-        <f>(H13 + M13)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O13" s="37" t="s">
@@ -5123,35 +4758,35 @@
         <v>180</v>
       </c>
       <c r="S13" s="52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="U13" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="V13" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="W13" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="X13" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T13" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="U13" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="V13" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="W13" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="X13" s="52">
-        <f>(LEFT(T13,1)+LEFT(U13,1)+LEFT(V13,1)+LEFT(W13,1))/4</f>
-        <v>0</v>
-      </c>
       <c r="Y13" s="53">
-        <f>(S13 + X13)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z13" s="53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="str">
         <f>IF(Risk!A14&lt;&gt;"",Risk!A14,"")</f>
         <v/>
@@ -5177,7 +4812,7 @@
         <v>180</v>
       </c>
       <c r="H14" s="52">
-        <f>(LEFT(D14,1)+LEFT(E14,1)+LEFT(F14,1)+LEFT(G14,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="37" t="s">
@@ -5193,11 +4828,11 @@
         <v>180</v>
       </c>
       <c r="M14" s="52">
-        <f>(LEFT(I14,1)+LEFT(J14,1)+LEFT(K14,1)+LEFT(L14,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N14" s="53">
-        <f>(H14 + M14)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O14" s="37" t="s">
@@ -5213,35 +4848,35 @@
         <v>180</v>
       </c>
       <c r="S14" s="52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="U14" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="V14" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="W14" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="X14" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T14" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="U14" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="V14" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="W14" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="X14" s="52">
-        <f>(LEFT(T14,1)+LEFT(U14,1)+LEFT(V14,1)+LEFT(W14,1))/4</f>
-        <v>0</v>
-      </c>
       <c r="Y14" s="53">
-        <f>(S14 + X14)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z14" s="53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="94" t="str">
         <f>IF(Risk!A15&lt;&gt;"",Risk!A15,"")</f>
         <v/>
@@ -5267,7 +4902,7 @@
         <v>180</v>
       </c>
       <c r="H15" s="52">
-        <f>(LEFT(D15,1)+LEFT(E15,1)+LEFT(F15,1)+LEFT(G15,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="37" t="s">
@@ -5283,11 +4918,11 @@
         <v>180</v>
       </c>
       <c r="M15" s="52">
-        <f>(LEFT(I15,1)+LEFT(J15,1)+LEFT(K15,1)+LEFT(L15,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N15" s="53">
-        <f>(H15 + M15)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O15" s="37" t="s">
@@ -5303,35 +4938,35 @@
         <v>180</v>
       </c>
       <c r="S15" s="52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="U15" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="V15" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="W15" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="X15" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T15" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="U15" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="W15" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="X15" s="52">
-        <f>(LEFT(T15,1)+LEFT(U15,1)+LEFT(V15,1)+LEFT(W15,1))/4</f>
-        <v>0</v>
-      </c>
       <c r="Y15" s="53">
-        <f>(S15 + X15)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z15" s="53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="94" t="str">
         <f>IF(Risk!A16&lt;&gt;"",Risk!A16,"")</f>
         <v/>
@@ -5357,7 +4992,7 @@
         <v>180</v>
       </c>
       <c r="H16" s="52">
-        <f>(LEFT(D16,1)+LEFT(E16,1)+LEFT(F16,1)+LEFT(G16,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="37" t="s">
@@ -5373,11 +5008,11 @@
         <v>180</v>
       </c>
       <c r="M16" s="52">
-        <f>(LEFT(I16,1)+LEFT(J16,1)+LEFT(K16,1)+LEFT(L16,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N16" s="53">
-        <f>(H16 + M16)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O16" s="37" t="s">
@@ -5393,35 +5028,35 @@
         <v>180</v>
       </c>
       <c r="S16" s="52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="U16" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="V16" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="W16" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="X16" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T16" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="U16" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="V16" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="W16" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="X16" s="52">
-        <f>(LEFT(T16,1)+LEFT(U16,1)+LEFT(V16,1)+LEFT(W16,1))/4</f>
-        <v>0</v>
-      </c>
       <c r="Y16" s="53">
-        <f>(S16 + X16)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z16" s="53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="94" t="str">
         <f>IF(Risk!A17&lt;&gt;"",Risk!A17,"")</f>
         <v/>
@@ -5447,7 +5082,7 @@
         <v>180</v>
       </c>
       <c r="H17" s="52">
-        <f>(LEFT(D17,1)+LEFT(E17,1)+LEFT(F17,1)+LEFT(G17,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="37" t="s">
@@ -5463,11 +5098,11 @@
         <v>180</v>
       </c>
       <c r="M17" s="52">
-        <f>(LEFT(I17,1)+LEFT(J17,1)+LEFT(K17,1)+LEFT(L17,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N17" s="53">
-        <f>(H17 + M17)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O17" s="37" t="s">
@@ -5483,35 +5118,35 @@
         <v>180</v>
       </c>
       <c r="S17" s="52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="U17" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="V17" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="W17" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="X17" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T17" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="U17" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="V17" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="W17" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="X17" s="52">
-        <f>(LEFT(T17,1)+LEFT(U17,1)+LEFT(V17,1)+LEFT(W17,1))/4</f>
-        <v>0</v>
-      </c>
       <c r="Y17" s="53">
-        <f>(S17 + X17)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z17" s="53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="str">
         <f>IF(Risk!A18&lt;&gt;"",Risk!A18,"")</f>
         <v/>
@@ -5537,7 +5172,7 @@
         <v>180</v>
       </c>
       <c r="H18" s="52">
-        <f>(LEFT(D18,1)+LEFT(E18,1)+LEFT(F18,1)+LEFT(G18,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="37" t="s">
@@ -5553,11 +5188,11 @@
         <v>180</v>
       </c>
       <c r="M18" s="52">
-        <f>(LEFT(I18,1)+LEFT(J18,1)+LEFT(K18,1)+LEFT(L18,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N18" s="53">
-        <f>(H18 + M18)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O18" s="37" t="s">
@@ -5573,35 +5208,35 @@
         <v>180</v>
       </c>
       <c r="S18" s="52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="U18" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="V18" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="W18" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="X18" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T18" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="U18" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="V18" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="W18" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="X18" s="52">
-        <f>(LEFT(T18,1)+LEFT(U18,1)+LEFT(V18,1)+LEFT(W18,1))/4</f>
-        <v>0</v>
-      </c>
       <c r="Y18" s="53">
-        <f>(S18 + X18)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z18" s="53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="str">
         <f>IF(Risk!A19&lt;&gt;"",Risk!A19,"")</f>
         <v/>
@@ -5627,7 +5262,7 @@
         <v>180</v>
       </c>
       <c r="H19" s="52">
-        <f>(LEFT(D19,1)+LEFT(E19,1)+LEFT(F19,1)+LEFT(G19,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="37" t="s">
@@ -5643,11 +5278,11 @@
         <v>180</v>
       </c>
       <c r="M19" s="52">
-        <f>(LEFT(I19,1)+LEFT(J19,1)+LEFT(K19,1)+LEFT(L19,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N19" s="53">
-        <f>(H19 + M19)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O19" s="37" t="s">
@@ -5663,35 +5298,35 @@
         <v>180</v>
       </c>
       <c r="S19" s="52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="U19" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="V19" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="W19" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="X19" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T19" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="U19" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="V19" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="W19" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="X19" s="52">
-        <f>(LEFT(T19,1)+LEFT(U19,1)+LEFT(V19,1)+LEFT(W19,1))/4</f>
-        <v>0</v>
-      </c>
       <c r="Y19" s="53">
-        <f>(S19 + X19)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z19" s="53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="94" t="str">
         <f>IF(Risk!A20&lt;&gt;"",Risk!A20,"")</f>
         <v/>
@@ -5717,7 +5352,7 @@
         <v>180</v>
       </c>
       <c r="H20" s="52">
-        <f>(LEFT(D20,1)+LEFT(E20,1)+LEFT(F20,1)+LEFT(G20,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="37" t="s">
@@ -5733,11 +5368,11 @@
         <v>180</v>
       </c>
       <c r="M20" s="52">
-        <f>(LEFT(I20,1)+LEFT(J20,1)+LEFT(K20,1)+LEFT(L20,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N20" s="53">
-        <f>(H20 + M20)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O20" s="37" t="s">
@@ -5753,35 +5388,35 @@
         <v>180</v>
       </c>
       <c r="S20" s="52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="U20" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="V20" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="W20" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="X20" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T20" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="U20" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="V20" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="W20" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="X20" s="52">
-        <f>(LEFT(T20,1)+LEFT(U20,1)+LEFT(V20,1)+LEFT(W20,1))/4</f>
-        <v>0</v>
-      </c>
       <c r="Y20" s="53">
-        <f>(S20 + X20)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z20" s="53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="str">
         <f>IF(Risk!A21&lt;&gt;"",Risk!A21,"")</f>
         <v/>
@@ -5807,7 +5442,7 @@
         <v>180</v>
       </c>
       <c r="H21" s="52">
-        <f>(LEFT(D21,1)+LEFT(E21,1)+LEFT(F21,1)+LEFT(G21,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21" s="37" t="s">
@@ -5823,11 +5458,11 @@
         <v>180</v>
       </c>
       <c r="M21" s="52">
-        <f>(LEFT(I21,1)+LEFT(J21,1)+LEFT(K21,1)+LEFT(L21,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N21" s="53">
-        <f>(H21 + M21)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O21" s="37" t="s">
@@ -5843,35 +5478,35 @@
         <v>180</v>
       </c>
       <c r="S21" s="52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="U21" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="V21" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="W21" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="X21" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T21" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="U21" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="V21" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="W21" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="X21" s="52">
-        <f>(LEFT(T21,1)+LEFT(U21,1)+LEFT(V21,1)+LEFT(W21,1))/4</f>
-        <v>0</v>
-      </c>
       <c r="Y21" s="53">
-        <f>(S21 + X21)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z21" s="53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="str">
         <f>IF(Risk!A22&lt;&gt;"",Risk!A22,"")</f>
         <v/>
@@ -5897,7 +5532,7 @@
         <v>180</v>
       </c>
       <c r="H22" s="52">
-        <f>(LEFT(D22,1)+LEFT(E22,1)+LEFT(F22,1)+LEFT(G22,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22" s="37" t="s">
@@ -5913,11 +5548,11 @@
         <v>180</v>
       </c>
       <c r="M22" s="52">
-        <f>(LEFT(I22,1)+LEFT(J22,1)+LEFT(K22,1)+LEFT(L22,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N22" s="53">
-        <f>(H22 + M22)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O22" s="37" t="s">
@@ -5933,35 +5568,35 @@
         <v>180</v>
       </c>
       <c r="S22" s="52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="U22" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="V22" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="W22" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="X22" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T22" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="U22" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="V22" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="W22" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="X22" s="52">
-        <f>(LEFT(T22,1)+LEFT(U22,1)+LEFT(V22,1)+LEFT(W22,1))/4</f>
-        <v>0</v>
-      </c>
       <c r="Y22" s="53">
-        <f>(S22 + X22)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z22" s="53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="94" t="str">
         <f>IF(Risk!A23&lt;&gt;"",Risk!A23,"")</f>
         <v/>
@@ -5987,7 +5622,7 @@
         <v>180</v>
       </c>
       <c r="H23" s="52">
-        <f>(LEFT(D23,1)+LEFT(E23,1)+LEFT(F23,1)+LEFT(G23,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" s="37" t="s">
@@ -6003,11 +5638,11 @@
         <v>180</v>
       </c>
       <c r="M23" s="52">
-        <f>(LEFT(I23,1)+LEFT(J23,1)+LEFT(K23,1)+LEFT(L23,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N23" s="53">
-        <f>(H23 + M23)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O23" s="37" t="s">
@@ -6023,35 +5658,35 @@
         <v>180</v>
       </c>
       <c r="S23" s="52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="U23" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="V23" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="W23" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="X23" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T23" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="U23" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="V23" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="W23" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="X23" s="52">
-        <f>(LEFT(T23,1)+LEFT(U23,1)+LEFT(V23,1)+LEFT(W23,1))/4</f>
-        <v>0</v>
-      </c>
       <c r="Y23" s="53">
-        <f>(S23 + X23)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z23" s="53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="94" t="str">
         <f>IF(Risk!A24&lt;&gt;"",Risk!A24,"")</f>
         <v/>
@@ -6077,7 +5712,7 @@
         <v>180</v>
       </c>
       <c r="H24" s="52">
-        <f>(LEFT(D24,1)+LEFT(E24,1)+LEFT(F24,1)+LEFT(G24,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" s="37" t="s">
@@ -6093,11 +5728,11 @@
         <v>180</v>
       </c>
       <c r="M24" s="52">
-        <f>(LEFT(I24,1)+LEFT(J24,1)+LEFT(K24,1)+LEFT(L24,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N24" s="53">
-        <f>(H24 + M24)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O24" s="37" t="s">
@@ -6113,35 +5748,35 @@
         <v>180</v>
       </c>
       <c r="S24" s="52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="U24" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="V24" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="W24" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="X24" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T24" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="U24" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="V24" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="W24" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="X24" s="52">
-        <f>(LEFT(T24,1)+LEFT(U24,1)+LEFT(V24,1)+LEFT(W24,1))/4</f>
-        <v>0</v>
-      </c>
       <c r="Y24" s="53">
-        <f>(S24 + X24)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z24" s="53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="94" t="str">
         <f>IF(Risk!A25&lt;&gt;"",Risk!A25,"")</f>
         <v/>
@@ -6167,7 +5802,7 @@
         <v>180</v>
       </c>
       <c r="H25" s="52">
-        <f>(LEFT(D25,1)+LEFT(E25,1)+LEFT(F25,1)+LEFT(G25,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I25" s="37" t="s">
@@ -6183,11 +5818,11 @@
         <v>180</v>
       </c>
       <c r="M25" s="52">
-        <f>(LEFT(I25,1)+LEFT(J25,1)+LEFT(K25,1)+LEFT(L25,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N25" s="53">
-        <f>(H25 + M25)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O25" s="37" t="s">
@@ -6203,35 +5838,35 @@
         <v>180</v>
       </c>
       <c r="S25" s="52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="U25" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="V25" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="W25" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="X25" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T25" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="U25" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="V25" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="W25" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="X25" s="52">
-        <f>(LEFT(T25,1)+LEFT(U25,1)+LEFT(V25,1)+LEFT(W25,1))/4</f>
-        <v>0</v>
-      </c>
       <c r="Y25" s="53">
-        <f>(S25 + X25)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z25" s="53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="94" t="str">
         <f>IF(Risk!A26&lt;&gt;"",Risk!A26,"")</f>
         <v/>
@@ -6257,7 +5892,7 @@
         <v>180</v>
       </c>
       <c r="H26" s="52">
-        <f>(LEFT(D26,1)+LEFT(E26,1)+LEFT(F26,1)+LEFT(G26,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I26" s="37" t="s">
@@ -6273,11 +5908,11 @@
         <v>180</v>
       </c>
       <c r="M26" s="52">
-        <f>(LEFT(I26,1)+LEFT(J26,1)+LEFT(K26,1)+LEFT(L26,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N26" s="53">
-        <f>(H26 + M26)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O26" s="37" t="s">
@@ -6293,35 +5928,35 @@
         <v>180</v>
       </c>
       <c r="S26" s="52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="U26" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="V26" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="W26" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="X26" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T26" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="U26" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="V26" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="W26" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="X26" s="52">
-        <f>(LEFT(T26,1)+LEFT(U26,1)+LEFT(V26,1)+LEFT(W26,1))/4</f>
-        <v>0</v>
-      </c>
       <c r="Y26" s="53">
-        <f>(S26 + X26)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z26" s="53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="94" t="str">
         <f>IF(Risk!A27&lt;&gt;"",Risk!A27,"")</f>
         <v/>
@@ -6347,7 +5982,7 @@
         <v>180</v>
       </c>
       <c r="H27" s="52">
-        <f>(LEFT(D27,1)+LEFT(E27,1)+LEFT(F27,1)+LEFT(G27,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="37" t="s">
@@ -6363,11 +5998,11 @@
         <v>180</v>
       </c>
       <c r="M27" s="52">
-        <f>(LEFT(I27,1)+LEFT(J27,1)+LEFT(K27,1)+LEFT(L27,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N27" s="53">
-        <f>(H27 + M27)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O27" s="37" t="s">
@@ -6383,35 +6018,35 @@
         <v>180</v>
       </c>
       <c r="S27" s="52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="U27" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="V27" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="W27" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="X27" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T27" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="U27" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="V27" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="W27" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="X27" s="52">
-        <f>(LEFT(T27,1)+LEFT(U27,1)+LEFT(V27,1)+LEFT(W27,1))/4</f>
-        <v>0</v>
-      </c>
       <c r="Y27" s="53">
-        <f>(S27 + X27)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z27" s="53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="94" t="str">
         <f>IF(Risk!A28&lt;&gt;"",Risk!A28,"")</f>
         <v/>
@@ -6437,7 +6072,7 @@
         <v>180</v>
       </c>
       <c r="H28" s="52">
-        <f>(LEFT(D28,1)+LEFT(E28,1)+LEFT(F28,1)+LEFT(G28,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I28" s="37" t="s">
@@ -6453,11 +6088,11 @@
         <v>180</v>
       </c>
       <c r="M28" s="52">
-        <f>(LEFT(I28,1)+LEFT(J28,1)+LEFT(K28,1)+LEFT(L28,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N28" s="53">
-        <f>(H28 + M28)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O28" s="37" t="s">
@@ -6473,35 +6108,35 @@
         <v>180</v>
       </c>
       <c r="S28" s="52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="U28" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="V28" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="W28" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="X28" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T28" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="U28" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="V28" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="W28" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="X28" s="52">
-        <f>(LEFT(T28,1)+LEFT(U28,1)+LEFT(V28,1)+LEFT(W28,1))/4</f>
-        <v>0</v>
-      </c>
       <c r="Y28" s="53">
-        <f>(S28 + X28)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z28" s="53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="94" t="str">
         <f>IF(Risk!A29&lt;&gt;"",Risk!A29,"")</f>
         <v/>
@@ -6527,7 +6162,7 @@
         <v>180</v>
       </c>
       <c r="H29" s="52">
-        <f>(LEFT(D29,1)+LEFT(E29,1)+LEFT(F29,1)+LEFT(G29,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I29" s="37" t="s">
@@ -6543,11 +6178,11 @@
         <v>180</v>
       </c>
       <c r="M29" s="52">
-        <f>(LEFT(I29,1)+LEFT(J29,1)+LEFT(K29,1)+LEFT(L29,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N29" s="53">
-        <f>(H29 + M29)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O29" s="37" t="s">
@@ -6563,35 +6198,35 @@
         <v>180</v>
       </c>
       <c r="S29" s="52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="U29" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="V29" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="W29" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="X29" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T29" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="U29" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="V29" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="W29" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="X29" s="52">
-        <f>(LEFT(T29,1)+LEFT(U29,1)+LEFT(V29,1)+LEFT(W29,1))/4</f>
-        <v>0</v>
-      </c>
       <c r="Y29" s="53">
-        <f>(S29 + X29)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z29" s="53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="94" t="str">
         <f>IF(Risk!A30&lt;&gt;"",Risk!A30,"")</f>
         <v/>
@@ -6617,7 +6252,7 @@
         <v>180</v>
       </c>
       <c r="H30" s="52">
-        <f>(LEFT(D30,1)+LEFT(E30,1)+LEFT(F30,1)+LEFT(G30,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I30" s="37" t="s">
@@ -6633,11 +6268,11 @@
         <v>180</v>
       </c>
       <c r="M30" s="52">
-        <f>(LEFT(I30,1)+LEFT(J30,1)+LEFT(K30,1)+LEFT(L30,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N30" s="53">
-        <f>(H30 + M30)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O30" s="37" t="s">
@@ -6653,474 +6288,82 @@
         <v>180</v>
       </c>
       <c r="S30" s="52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="U30" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="V30" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="W30" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="X30" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T30" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="U30" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="V30" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="W30" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="X30" s="52">
-        <f>(LEFT(T30,1)+LEFT(U30,1)+LEFT(V30,1)+LEFT(W30,1))/4</f>
-        <v>0</v>
-      </c>
       <c r="Y30" s="53">
-        <f>(S30 + X30)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z30" s="53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="17" priority="81" operator="equal">
+      <formula>"0-N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:G30">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+      <formula>"0-N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:L30">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+      <formula>"0-N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N4:N30">
-    <cfRule type="cellIs" dxfId="99" priority="97" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="97" operator="between">
       <formula>4</formula>
       <formula>6.99999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="98" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="98" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="99" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="99" operator="greaterThanOrEqual">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y4:Y30">
-    <cfRule type="cellIs" dxfId="96" priority="85" operator="between">
-      <formula>4</formula>
-      <formula>6.99999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="86" operator="lessThan">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="87" operator="greaterThanOrEqual">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z4:Z30">
-    <cfRule type="cellIs" dxfId="93" priority="82" operator="between">
-      <formula>4</formula>
-      <formula>6.99999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="83" operator="lessThan">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="84" operator="greaterThanOrEqual">
-      <formula>7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="90" priority="81" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:G11">
-    <cfRule type="cellIs" dxfId="89" priority="80" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:L11">
-    <cfRule type="cellIs" dxfId="88" priority="79" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4:R11">
-    <cfRule type="cellIs" dxfId="87" priority="78" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T4:W11">
-    <cfRule type="cellIs" dxfId="86" priority="77" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:G12">
-    <cfRule type="cellIs" dxfId="85" priority="76" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:L12">
-    <cfRule type="cellIs" dxfId="84" priority="75" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O12:R12">
-    <cfRule type="cellIs" dxfId="83" priority="74" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T12:W12">
-    <cfRule type="cellIs" dxfId="82" priority="73" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:G13">
-    <cfRule type="cellIs" dxfId="81" priority="72" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:L13">
-    <cfRule type="cellIs" dxfId="80" priority="71" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O13:R13">
-    <cfRule type="cellIs" dxfId="79" priority="70" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T13:W13">
-    <cfRule type="cellIs" dxfId="78" priority="69" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:G14">
-    <cfRule type="cellIs" dxfId="77" priority="68" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14:L14">
-    <cfRule type="cellIs" dxfId="76" priority="67" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O14:R14">
-    <cfRule type="cellIs" dxfId="75" priority="66" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T14:W14">
-    <cfRule type="cellIs" dxfId="74" priority="65" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:G15">
-    <cfRule type="cellIs" dxfId="73" priority="64" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15:L15">
-    <cfRule type="cellIs" dxfId="72" priority="63" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O15:R15">
-    <cfRule type="cellIs" dxfId="71" priority="62" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T15:W15">
-    <cfRule type="cellIs" dxfId="70" priority="61" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="69" priority="60" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16:L16">
-    <cfRule type="cellIs" dxfId="68" priority="59" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O16:R16">
-    <cfRule type="cellIs" dxfId="67" priority="58" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T16:W16">
-    <cfRule type="cellIs" dxfId="66" priority="57" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:G17">
-    <cfRule type="cellIs" dxfId="65" priority="56" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:L17">
-    <cfRule type="cellIs" dxfId="64" priority="55" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O17:R17">
-    <cfRule type="cellIs" dxfId="63" priority="54" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T17:W17">
-    <cfRule type="cellIs" dxfId="62" priority="53" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:G18">
-    <cfRule type="cellIs" dxfId="61" priority="52" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:L18">
-    <cfRule type="cellIs" dxfId="60" priority="51" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:R18">
-    <cfRule type="cellIs" dxfId="59" priority="50" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T18:W18">
-    <cfRule type="cellIs" dxfId="58" priority="49" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:G19">
-    <cfRule type="cellIs" dxfId="57" priority="48" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19:L19">
-    <cfRule type="cellIs" dxfId="56" priority="47" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O19:R19">
-    <cfRule type="cellIs" dxfId="55" priority="46" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T19:W19">
-    <cfRule type="cellIs" dxfId="54" priority="45" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:G20">
-    <cfRule type="cellIs" dxfId="53" priority="44" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:L20">
-    <cfRule type="cellIs" dxfId="52" priority="43" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O20:R20">
-    <cfRule type="cellIs" dxfId="51" priority="42" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T20:W20">
-    <cfRule type="cellIs" dxfId="50" priority="41" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:G21">
-    <cfRule type="cellIs" dxfId="49" priority="40" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21:L21">
-    <cfRule type="cellIs" dxfId="48" priority="39" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O21:R21">
-    <cfRule type="cellIs" dxfId="47" priority="38" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T21:W21">
-    <cfRule type="cellIs" dxfId="46" priority="37" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:G22">
-    <cfRule type="cellIs" dxfId="45" priority="36" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:L22">
-    <cfRule type="cellIs" dxfId="44" priority="35" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O22:R22">
-    <cfRule type="cellIs" dxfId="43" priority="34" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T22:W22">
-    <cfRule type="cellIs" dxfId="42" priority="33" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:G23">
-    <cfRule type="cellIs" dxfId="41" priority="32" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23:L23">
-    <cfRule type="cellIs" dxfId="40" priority="31" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O23:R23">
-    <cfRule type="cellIs" dxfId="39" priority="30" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T23:W23">
-    <cfRule type="cellIs" dxfId="38" priority="29" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:G24">
-    <cfRule type="cellIs" dxfId="37" priority="28" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24:L24">
-    <cfRule type="cellIs" dxfId="36" priority="27" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O24:R24">
-    <cfRule type="cellIs" dxfId="35" priority="26" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T24:W24">
-    <cfRule type="cellIs" dxfId="34" priority="25" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:G25">
-    <cfRule type="cellIs" dxfId="33" priority="24" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25:L25">
-    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O25:R25">
-    <cfRule type="cellIs" dxfId="31" priority="22" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T25:W25">
-    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:G26">
-    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26:L26">
-    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O26:R26">
-    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T26:W26">
-    <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:G27">
-    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27:L27">
-    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O27:R27">
-    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T27:W27">
-    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:G28">
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28:L28">
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O28:R28">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T28:W28">
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:G29">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29:L29">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O29:R29">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T29:W29">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30:G30">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30:L30">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
-      <formula>"0-N/A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:R30">
+  <conditionalFormatting sqref="O4:R30">
     <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"0-N/A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T30:W30">
+  <conditionalFormatting sqref="T4:W30">
     <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"0-N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4:Z30">
+    <cfRule type="cellIs" dxfId="9" priority="82" operator="between">
+      <formula>4</formula>
+      <formula>6.99999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="83" operator="lessThan">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="84" operator="greaterThanOrEqual">
+      <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7446,7 +6689,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="52">
-        <f>(LEFT(E4,1)+LEFT(F4,1)+LEFT(G4,1)+LEFT(H4,1))/4</f>
+        <f t="shared" ref="I4:I11" si="0">(LEFT(E4,1)+LEFT(F4,1)+LEFT(G4,1)+LEFT(H4,1))/4</f>
         <v>1.5</v>
       </c>
       <c r="J4" s="37" t="s">
@@ -7462,11 +6705,11 @@
         <v>140</v>
       </c>
       <c r="N4" s="52">
-        <f>(LEFT(J4,1)+LEFT(K4,1)+LEFT(L4,1)+LEFT(M4,1))/4</f>
+        <f t="shared" ref="N4:N11" si="1">(LEFT(J4,1)+LEFT(K4,1)+LEFT(L4,1)+LEFT(M4,1))/4</f>
         <v>2.25</v>
       </c>
       <c r="O4" s="53">
-        <f>(I4 + N4)/2</f>
+        <f t="shared" ref="O4:O11" si="2">(I4 + N4)/2</f>
         <v>1.875</v>
       </c>
       <c r="P4" s="37" t="s">
@@ -7498,11 +6741,11 @@
         <v>5</v>
       </c>
       <c r="Y4" s="52">
-        <f>(LEFT(U4,1)+LEFT(V4,1)+LEFT(W4,1)+LEFT(X4,1))/4</f>
+        <f t="shared" ref="Y4:Y11" si="3">(LEFT(U4,1)+LEFT(V4,1)+LEFT(W4,1)+LEFT(X4,1))/4</f>
         <v>5</v>
       </c>
       <c r="Z4" s="53">
-        <f>(T4 + Y4)/2</f>
+        <f t="shared" ref="Z4:Z11" si="4">(T4 + Y4)/2</f>
         <v>4.875</v>
       </c>
       <c r="AA4" s="53">
@@ -7540,7 +6783,7 @@
         <v>180</v>
       </c>
       <c r="I5" s="52">
-        <f>(LEFT(E5,1)+LEFT(F5,1)+LEFT(G5,1)+LEFT(H5,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="37" t="s">
@@ -7556,11 +6799,11 @@
         <v>180</v>
       </c>
       <c r="N5" s="52">
-        <f>(LEFT(J5,1)+LEFT(K5,1)+LEFT(L5,1)+LEFT(M5,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O5" s="54">
-        <f>(I5 + N5)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P5" s="37" t="s">
@@ -7576,7 +6819,7 @@
         <v>180</v>
       </c>
       <c r="T5" s="52">
-        <f t="shared" ref="T5:T11" si="0">IF(LEFT(P5,1)="9",LEFT(P5,1),(LEFT(P5,1)+LEFT(Q5,1)+LEFT(R5,1)+LEFT(S5,1))/4)</f>
+        <f t="shared" ref="T5:T11" si="5">IF(LEFT(P5,1)="9",LEFT(P5,1),(LEFT(P5,1)+LEFT(Q5,1)+LEFT(R5,1)+LEFT(S5,1))/4)</f>
         <v>0</v>
       </c>
       <c r="U5" s="37" t="s">
@@ -7592,15 +6835,15 @@
         <v>180</v>
       </c>
       <c r="Y5" s="52">
-        <f>(LEFT(U5,1)+LEFT(V5,1)+LEFT(W5,1)+LEFT(X5,1))/4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z5" s="54">
-        <f>(T5 + Y5)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA5" s="53">
-        <f t="shared" ref="AA5:AA11" si="1">(O5 + Z5)/2</f>
+        <f t="shared" ref="AA5:AA11" si="6">(O5 + Z5)/2</f>
         <v>0</v>
       </c>
     </row>
@@ -7634,7 +6877,7 @@
         <v>180</v>
       </c>
       <c r="I6" s="52">
-        <f>(LEFT(E6,1)+LEFT(F6,1)+LEFT(G6,1)+LEFT(H6,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6" s="37" t="s">
@@ -7650,11 +6893,11 @@
         <v>180</v>
       </c>
       <c r="N6" s="52">
-        <f>(LEFT(J6,1)+LEFT(K6,1)+LEFT(L6,1)+LEFT(M6,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O6" s="53">
-        <f>(I6 + N6)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P6" s="37" t="s">
@@ -7670,7 +6913,7 @@
         <v>180</v>
       </c>
       <c r="T6" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U6" s="37" t="s">
@@ -7686,15 +6929,15 @@
         <v>180</v>
       </c>
       <c r="Y6" s="52">
-        <f>(LEFT(U6,1)+LEFT(V6,1)+LEFT(W6,1)+LEFT(X6,1))/4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z6" s="53">
-        <f>(T6 + Y6)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA6" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7728,7 +6971,7 @@
         <v>180</v>
       </c>
       <c r="I7" s="52">
-        <f>(LEFT(E7,1)+LEFT(F7,1)+LEFT(G7,1)+LEFT(H7,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J7" s="37" t="s">
@@ -7744,11 +6987,11 @@
         <v>180</v>
       </c>
       <c r="N7" s="52">
-        <f>(LEFT(J7,1)+LEFT(K7,1)+LEFT(L7,1)+LEFT(M7,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O7" s="53">
-        <f>(I7 + N7)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P7" s="37" t="s">
@@ -7764,7 +7007,7 @@
         <v>180</v>
       </c>
       <c r="T7" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U7" s="37" t="s">
@@ -7780,15 +7023,15 @@
         <v>180</v>
       </c>
       <c r="Y7" s="52">
-        <f>(LEFT(U7,1)+LEFT(V7,1)+LEFT(W7,1)+LEFT(X7,1))/4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z7" s="53">
-        <f>(T7 + Y7)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA7" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7822,7 +7065,7 @@
         <v>205</v>
       </c>
       <c r="I8" s="52">
-        <f>(LEFT(E8,1)+LEFT(F8,1)+LEFT(G8,1)+LEFT(H8,1))/4</f>
+        <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
       <c r="J8" s="37" t="s">
@@ -7838,11 +7081,11 @@
         <v>182</v>
       </c>
       <c r="N8" s="52">
-        <f>(LEFT(J8,1)+LEFT(K8,1)+LEFT(L8,1)+LEFT(M8,1))/4</f>
+        <f t="shared" si="1"/>
         <v>6.25</v>
       </c>
       <c r="O8" s="53">
-        <f>(I8 + N8)/2</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P8" s="37" t="s">
@@ -7858,7 +7101,7 @@
         <v>2</v>
       </c>
       <c r="T8" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
       <c r="U8" s="37" t="s">
@@ -7874,15 +7117,15 @@
         <v>201</v>
       </c>
       <c r="Y8" s="52">
-        <f>(LEFT(U8,1)+LEFT(V8,1)+LEFT(W8,1)+LEFT(X8,1))/4</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Z8" s="53">
-        <f>(T8 + Y8)/2</f>
+        <f t="shared" si="4"/>
         <v>3.75</v>
       </c>
       <c r="AA8" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3.875</v>
       </c>
     </row>
@@ -7916,7 +7159,7 @@
         <v>180</v>
       </c>
       <c r="I9" s="52">
-        <f>(LEFT(E9,1)+LEFT(F9,1)+LEFT(G9,1)+LEFT(H9,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9" s="37" t="s">
@@ -7932,11 +7175,11 @@
         <v>180</v>
       </c>
       <c r="N9" s="52">
-        <f>(LEFT(J9,1)+LEFT(K9,1)+LEFT(L9,1)+LEFT(M9,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O9" s="53">
-        <f>(I9 + N9)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P9" s="37" t="s">
@@ -7952,7 +7195,7 @@
         <v>180</v>
       </c>
       <c r="T9" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U9" s="37" t="s">
@@ -7968,15 +7211,15 @@
         <v>180</v>
       </c>
       <c r="Y9" s="52">
-        <f>(LEFT(U9,1)+LEFT(V9,1)+LEFT(W9,1)+LEFT(X9,1))/4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z9" s="53">
-        <f>(T9 + Y9)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA9" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8010,7 +7253,7 @@
         <v>180</v>
       </c>
       <c r="I10" s="52">
-        <f>(LEFT(E10,1)+LEFT(F10,1)+LEFT(G10,1)+LEFT(H10,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10" s="37" t="s">
@@ -8026,11 +7269,11 @@
         <v>180</v>
       </c>
       <c r="N10" s="52">
-        <f>(LEFT(J10,1)+LEFT(K10,1)+LEFT(L10,1)+LEFT(M10,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O10" s="53">
-        <f>(I10 + N10)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P10" s="37" t="s">
@@ -8046,7 +7289,7 @@
         <v>180</v>
       </c>
       <c r="T10" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U10" s="37" t="s">
@@ -8062,15 +7305,15 @@
         <v>180</v>
       </c>
       <c r="Y10" s="52">
-        <f>(LEFT(U10,1)+LEFT(V10,1)+LEFT(W10,1)+LEFT(X10,1))/4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z10" s="53">
-        <f>(T10 + Y10)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA10" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8104,7 +7347,7 @@
         <v>180</v>
       </c>
       <c r="I11" s="52">
-        <f>(LEFT(E11,1)+LEFT(F11,1)+LEFT(G11,1)+LEFT(H11,1))/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J11" s="37" t="s">
@@ -8120,11 +7363,11 @@
         <v>180</v>
       </c>
       <c r="N11" s="52">
-        <f>(LEFT(J11,1)+LEFT(K11,1)+LEFT(L11,1)+LEFT(M11,1))/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O11" s="53">
-        <f>(I11 + N11)/2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P11" s="37" t="s">
@@ -8140,7 +7383,7 @@
         <v>180</v>
       </c>
       <c r="T11" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U11" s="37" t="s">
@@ -8156,15 +7399,15 @@
         <v>180</v>
       </c>
       <c r="Y11" s="52">
-        <f>(LEFT(U11,1)+LEFT(V11,1)+LEFT(W11,1)+LEFT(X11,1))/4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z11" s="53">
-        <f>(T11 + Y11)/2</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA11" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8198,7 +7441,7 @@
         <v>180</v>
       </c>
       <c r="I12" s="52">
-        <f t="shared" ref="I12:I30" si="2">(LEFT(E12,1)+LEFT(F12,1)+LEFT(G12,1)+LEFT(H12,1))/4</f>
+        <f t="shared" ref="I12:I30" si="7">(LEFT(E12,1)+LEFT(F12,1)+LEFT(G12,1)+LEFT(H12,1))/4</f>
         <v>0</v>
       </c>
       <c r="J12" s="37" t="s">
@@ -8214,11 +7457,11 @@
         <v>180</v>
       </c>
       <c r="N12" s="52">
-        <f t="shared" ref="N12:N30" si="3">(LEFT(J12,1)+LEFT(K12,1)+LEFT(L12,1)+LEFT(M12,1))/4</f>
+        <f t="shared" ref="N12:N30" si="8">(LEFT(J12,1)+LEFT(K12,1)+LEFT(L12,1)+LEFT(M12,1))/4</f>
         <v>0</v>
       </c>
       <c r="O12" s="53">
-        <f t="shared" ref="O12:O30" si="4">(I12 + N12)/2</f>
+        <f t="shared" ref="O12:O30" si="9">(I12 + N12)/2</f>
         <v>0</v>
       </c>
       <c r="P12" s="37" t="s">
@@ -8234,7 +7477,7 @@
         <v>180</v>
       </c>
       <c r="T12" s="52">
-        <f t="shared" ref="T12:T30" si="5">IF(LEFT(P12,1)="9",LEFT(P12,1),(LEFT(P12,1)+LEFT(Q12,1)+LEFT(R12,1)+LEFT(S12,1))/4)</f>
+        <f t="shared" ref="T12:T30" si="10">IF(LEFT(P12,1)="9",LEFT(P12,1),(LEFT(P12,1)+LEFT(Q12,1)+LEFT(R12,1)+LEFT(S12,1))/4)</f>
         <v>0</v>
       </c>
       <c r="U12" s="37" t="s">
@@ -8250,15 +7493,15 @@
         <v>180</v>
       </c>
       <c r="Y12" s="52">
-        <f t="shared" ref="Y12:Y30" si="6">(LEFT(U12,1)+LEFT(V12,1)+LEFT(W12,1)+LEFT(X12,1))/4</f>
+        <f t="shared" ref="Y12:Y30" si="11">(LEFT(U12,1)+LEFT(V12,1)+LEFT(W12,1)+LEFT(X12,1))/4</f>
         <v>0</v>
       </c>
       <c r="Z12" s="53">
-        <f t="shared" ref="Z12:Z30" si="7">(T12 + Y12)/2</f>
+        <f t="shared" ref="Z12:Z30" si="12">(T12 + Y12)/2</f>
         <v>0</v>
       </c>
       <c r="AA12" s="53">
-        <f t="shared" ref="AA12:AA30" si="8">(O12 + Z12)/2</f>
+        <f t="shared" ref="AA12:AA30" si="13">(O12 + Z12)/2</f>
         <v>0</v>
       </c>
     </row>
@@ -8292,7 +7535,7 @@
         <v>180</v>
       </c>
       <c r="I13" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J13" s="37" t="s">
@@ -8308,11 +7551,11 @@
         <v>180</v>
       </c>
       <c r="N13" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O13" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P13" s="37" t="s">
@@ -8328,7 +7571,7 @@
         <v>180</v>
       </c>
       <c r="T13" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U13" s="37" t="s">
@@ -8344,15 +7587,15 @@
         <v>180</v>
       </c>
       <c r="Y13" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z13" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA13" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -8386,7 +7629,7 @@
         <v>180</v>
       </c>
       <c r="I14" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J14" s="37" t="s">
@@ -8402,11 +7645,11 @@
         <v>180</v>
       </c>
       <c r="N14" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O14" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P14" s="37" t="s">
@@ -8422,7 +7665,7 @@
         <v>180</v>
       </c>
       <c r="T14" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U14" s="37" t="s">
@@ -8438,15 +7681,15 @@
         <v>180</v>
       </c>
       <c r="Y14" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z14" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA14" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -8480,7 +7723,7 @@
         <v>180</v>
       </c>
       <c r="I15" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J15" s="37" t="s">
@@ -8496,11 +7739,11 @@
         <v>180</v>
       </c>
       <c r="N15" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O15" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P15" s="37" t="s">
@@ -8516,7 +7759,7 @@
         <v>180</v>
       </c>
       <c r="T15" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U15" s="37" t="s">
@@ -8532,15 +7775,15 @@
         <v>180</v>
       </c>
       <c r="Y15" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z15" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA15" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -8574,7 +7817,7 @@
         <v>180</v>
       </c>
       <c r="I16" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J16" s="37" t="s">
@@ -8590,11 +7833,11 @@
         <v>180</v>
       </c>
       <c r="N16" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O16" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P16" s="37" t="s">
@@ -8610,7 +7853,7 @@
         <v>180</v>
       </c>
       <c r="T16" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U16" s="37" t="s">
@@ -8626,15 +7869,15 @@
         <v>180</v>
       </c>
       <c r="Y16" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z16" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA16" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -8668,7 +7911,7 @@
         <v>180</v>
       </c>
       <c r="I17" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J17" s="37" t="s">
@@ -8684,11 +7927,11 @@
         <v>180</v>
       </c>
       <c r="N17" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O17" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P17" s="37" t="s">
@@ -8704,7 +7947,7 @@
         <v>180</v>
       </c>
       <c r="T17" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U17" s="37" t="s">
@@ -8720,15 +7963,15 @@
         <v>180</v>
       </c>
       <c r="Y17" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z17" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA17" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -8762,7 +8005,7 @@
         <v>180</v>
       </c>
       <c r="I18" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J18" s="37" t="s">
@@ -8778,11 +8021,11 @@
         <v>180</v>
       </c>
       <c r="N18" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O18" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P18" s="37" t="s">
@@ -8798,7 +8041,7 @@
         <v>180</v>
       </c>
       <c r="T18" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U18" s="37" t="s">
@@ -8814,15 +8057,15 @@
         <v>180</v>
       </c>
       <c r="Y18" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z18" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA18" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -8856,7 +8099,7 @@
         <v>180</v>
       </c>
       <c r="I19" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J19" s="37" t="s">
@@ -8872,11 +8115,11 @@
         <v>180</v>
       </c>
       <c r="N19" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O19" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P19" s="37" t="s">
@@ -8892,7 +8135,7 @@
         <v>180</v>
       </c>
       <c r="T19" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U19" s="37" t="s">
@@ -8908,15 +8151,15 @@
         <v>180</v>
       </c>
       <c r="Y19" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z19" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA19" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -8950,7 +8193,7 @@
         <v>180</v>
       </c>
       <c r="I20" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J20" s="37" t="s">
@@ -8966,11 +8209,11 @@
         <v>180</v>
       </c>
       <c r="N20" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O20" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P20" s="37" t="s">
@@ -8986,7 +8229,7 @@
         <v>180</v>
       </c>
       <c r="T20" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U20" s="37" t="s">
@@ -9002,15 +8245,15 @@
         <v>180</v>
       </c>
       <c r="Y20" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z20" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA20" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -9044,7 +8287,7 @@
         <v>180</v>
       </c>
       <c r="I21" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J21" s="37" t="s">
@@ -9060,11 +8303,11 @@
         <v>180</v>
       </c>
       <c r="N21" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O21" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P21" s="37" t="s">
@@ -9080,7 +8323,7 @@
         <v>180</v>
       </c>
       <c r="T21" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U21" s="37" t="s">
@@ -9096,15 +8339,15 @@
         <v>180</v>
       </c>
       <c r="Y21" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z21" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA21" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -9138,7 +8381,7 @@
         <v>180</v>
       </c>
       <c r="I22" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J22" s="37" t="s">
@@ -9154,11 +8397,11 @@
         <v>180</v>
       </c>
       <c r="N22" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O22" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P22" s="37" t="s">
@@ -9174,7 +8417,7 @@
         <v>180</v>
       </c>
       <c r="T22" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U22" s="37" t="s">
@@ -9190,15 +8433,15 @@
         <v>180</v>
       </c>
       <c r="Y22" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z22" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA22" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -9232,7 +8475,7 @@
         <v>180</v>
       </c>
       <c r="I23" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J23" s="37" t="s">
@@ -9248,11 +8491,11 @@
         <v>180</v>
       </c>
       <c r="N23" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O23" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P23" s="37" t="s">
@@ -9268,7 +8511,7 @@
         <v>180</v>
       </c>
       <c r="T23" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U23" s="37" t="s">
@@ -9284,15 +8527,15 @@
         <v>180</v>
       </c>
       <c r="Y23" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z23" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA23" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -9326,7 +8569,7 @@
         <v>180</v>
       </c>
       <c r="I24" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J24" s="37" t="s">
@@ -9342,11 +8585,11 @@
         <v>180</v>
       </c>
       <c r="N24" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O24" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P24" s="37" t="s">
@@ -9362,7 +8605,7 @@
         <v>180</v>
       </c>
       <c r="T24" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U24" s="37" t="s">
@@ -9378,15 +8621,15 @@
         <v>180</v>
       </c>
       <c r="Y24" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z24" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA24" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -9420,7 +8663,7 @@
         <v>180</v>
       </c>
       <c r="I25" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J25" s="37" t="s">
@@ -9436,11 +8679,11 @@
         <v>180</v>
       </c>
       <c r="N25" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O25" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P25" s="37" t="s">
@@ -9456,7 +8699,7 @@
         <v>180</v>
       </c>
       <c r="T25" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U25" s="37" t="s">
@@ -9472,15 +8715,15 @@
         <v>180</v>
       </c>
       <c r="Y25" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z25" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA25" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -9514,7 +8757,7 @@
         <v>180</v>
       </c>
       <c r="I26" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J26" s="37" t="s">
@@ -9530,11 +8773,11 @@
         <v>180</v>
       </c>
       <c r="N26" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O26" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P26" s="37" t="s">
@@ -9550,7 +8793,7 @@
         <v>180</v>
       </c>
       <c r="T26" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U26" s="37" t="s">
@@ -9566,15 +8809,15 @@
         <v>180</v>
       </c>
       <c r="Y26" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z26" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA26" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -9608,7 +8851,7 @@
         <v>180</v>
       </c>
       <c r="I27" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J27" s="37" t="s">
@@ -9624,11 +8867,11 @@
         <v>180</v>
       </c>
       <c r="N27" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O27" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P27" s="37" t="s">
@@ -9644,7 +8887,7 @@
         <v>180</v>
       </c>
       <c r="T27" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U27" s="37" t="s">
@@ -9660,15 +8903,15 @@
         <v>180</v>
       </c>
       <c r="Y27" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z27" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA27" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -9702,7 +8945,7 @@
         <v>180</v>
       </c>
       <c r="I28" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J28" s="37" t="s">
@@ -9718,11 +8961,11 @@
         <v>180</v>
       </c>
       <c r="N28" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O28" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P28" s="37" t="s">
@@ -9738,7 +8981,7 @@
         <v>180</v>
       </c>
       <c r="T28" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U28" s="37" t="s">
@@ -9754,15 +8997,15 @@
         <v>180</v>
       </c>
       <c r="Y28" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z28" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA28" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -9796,7 +9039,7 @@
         <v>180</v>
       </c>
       <c r="I29" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J29" s="37" t="s">
@@ -9812,11 +9055,11 @@
         <v>180</v>
       </c>
       <c r="N29" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O29" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P29" s="37" t="s">
@@ -9832,7 +9075,7 @@
         <v>180</v>
       </c>
       <c r="T29" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U29" s="37" t="s">
@@ -9848,15 +9091,15 @@
         <v>180</v>
       </c>
       <c r="Y29" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z29" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA29" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -9890,7 +9133,7 @@
         <v>180</v>
       </c>
       <c r="I30" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J30" s="37" t="s">
@@ -9906,11 +9149,11 @@
         <v>180</v>
       </c>
       <c r="N30" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O30" s="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P30" s="37" t="s">
@@ -9926,7 +9169,7 @@
         <v>180</v>
       </c>
       <c r="T30" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U30" s="37" t="s">
@@ -9942,58 +9185,46 @@
         <v>180</v>
       </c>
       <c r="Y30" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z30" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA30" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:XFD3 D4:XFD30 A31:XFD1048576">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"0-N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O4:O30">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="between">
       <formula>4</formula>
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="greaterThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z4:Z30">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="between">
+  <conditionalFormatting sqref="Z4:AA30">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
       <formula>4</formula>
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
       <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA4:AA30">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
-      <formula>4</formula>
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD3 A31:XFD1048576 D4:XFD30">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"0-N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10459,7 +9690,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="15" t="str">
-        <f>IF(B10&lt;&gt;"",_xlfn.CONCAT(A10,"-",B10),A10)</f>
+        <f t="shared" ref="C10:C19" si="0">IF(B10&lt;&gt;"",_xlfn.CONCAT(A10,"-",B10),A10)</f>
         <v>0-N/A</v>
       </c>
       <c r="E10" s="15">
@@ -10469,7 +9700,7 @@
         <v>20</v>
       </c>
       <c r="G10" s="15" t="str">
-        <f>IF(F10&lt;&gt;"",_xlfn.CONCAT(E10,"-",F10),E10)</f>
+        <f t="shared" ref="G10:G19" si="1">IF(F10&lt;&gt;"",_xlfn.CONCAT(E10,"-",F10),E10)</f>
         <v>0-N/A</v>
       </c>
       <c r="I10" s="15">
@@ -10479,7 +9710,7 @@
         <v>20</v>
       </c>
       <c r="K10" s="15" t="str">
-        <f>IF(J10&lt;&gt;"",_xlfn.CONCAT(I10,"-",J10),I10)</f>
+        <f t="shared" ref="K10:K19" si="2">IF(J10&lt;&gt;"",_xlfn.CONCAT(I10,"-",J10),I10)</f>
         <v>0-N/A</v>
       </c>
       <c r="M10" s="15">
@@ -10489,383 +9720,383 @@
         <v>20</v>
       </c>
       <c r="O10" s="15" t="str">
-        <f>IF(N10&lt;&gt;"",_xlfn.CONCAT(M10,"-",N10),M10)</f>
+        <f t="shared" ref="O10:O19" si="3">IF(N10&lt;&gt;"",_xlfn.CONCAT(M10,"-",N10),M10)</f>
         <v>0-N/A</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
-        <f>A10+1</f>
+        <f t="shared" ref="A11:A19" si="4">A10+1</f>
         <v>1</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>89</v>
       </c>
       <c r="C11" s="15" t="str">
-        <f>IF(B11&lt;&gt;"",_xlfn.CONCAT(A11,"-",B11),A11)</f>
+        <f t="shared" si="0"/>
         <v>1-Security Penetration Skill</v>
       </c>
       <c r="E11" s="15">
-        <f>E10+1</f>
+        <f t="shared" ref="E11:E19" si="5">E10+1</f>
         <v>1</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>125</v>
       </c>
       <c r="G11" s="15" t="str">
-        <f>IF(F11&lt;&gt;"",_xlfn.CONCAT(E11,"-",F11),E11)</f>
+        <f t="shared" si="1"/>
         <v>1-Practically Impossible</v>
       </c>
       <c r="I11" s="15">
-        <f>I10+1</f>
+        <f t="shared" ref="I11:I19" si="6">I10+1</f>
         <v>1</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>141</v>
       </c>
       <c r="K11" s="15" t="str">
-        <f>IF(J11&lt;&gt;"",_xlfn.CONCAT(I11,"-",J11),I11)</f>
+        <f t="shared" si="2"/>
         <v>1-Less than cost to fix vuln</v>
       </c>
       <c r="M11" s="15">
-        <f>M10+1</f>
+        <f t="shared" ref="M11:M19" si="7">M10+1</f>
         <v>1</v>
       </c>
       <c r="N11" s="15"/>
       <c r="O11" s="15">
-        <f>IF(N11&lt;&gt;"",_xlfn.CONCAT(M11,"-",N11),M11)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
-        <f>A11+1</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15">
-        <f>IF(B12&lt;&gt;"",_xlfn.CONCAT(A12,"-",B12),A12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E12" s="15">
-        <f>E11+1</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15">
-        <f>IF(F12&lt;&gt;"",_xlfn.CONCAT(E12,"-",F12),E12)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I12" s="15">
-        <f>I11+1</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15">
-        <f>IF(J12&lt;&gt;"",_xlfn.CONCAT(I12,"-",J12),I12)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M12" s="15">
-        <f>M11+1</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="N12" s="15" t="s">
         <v>157</v>
       </c>
       <c r="O12" s="15" t="str">
-        <f>IF(N12&lt;&gt;"",_xlfn.CONCAT(M12,"-",N12),M12)</f>
+        <f t="shared" si="3"/>
         <v>2-Minimal non-sensitive data</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
-        <f>A12+1</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15">
-        <f>IF(B13&lt;&gt;"",_xlfn.CONCAT(A13,"-",B13),A13)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E13" s="15">
-        <f>E12+1</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>126</v>
       </c>
       <c r="G13" s="15" t="str">
-        <f>IF(F13&lt;&gt;"",_xlfn.CONCAT(E13,"-",F13),E13)</f>
+        <f t="shared" si="1"/>
         <v>3-Difficult</v>
       </c>
       <c r="I13" s="15">
-        <f>I12+1</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>142</v>
       </c>
       <c r="K13" s="15" t="str">
-        <f>IF(J13&lt;&gt;"",_xlfn.CONCAT(I13,"-",J13),I13)</f>
+        <f t="shared" si="2"/>
         <v>3-Minor effect on annual profit</v>
       </c>
       <c r="M13" s="15">
-        <f>M12+1</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N13" s="15"/>
       <c r="O13" s="15">
-        <f>IF(N13&lt;&gt;"",_xlfn.CONCAT(M13,"-",N13),M13)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
-        <f>A13+1</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C14" s="15" t="str">
-        <f>IF(B14&lt;&gt;"",_xlfn.CONCAT(A14,"-",B14),A14)</f>
+        <f t="shared" si="0"/>
         <v>4-Network/Programming Skill</v>
       </c>
       <c r="E14" s="15">
-        <f>E13+1</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15">
-        <f>IF(F14&lt;&gt;"",_xlfn.CONCAT(E14,"-",F14),E14)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I14" s="15">
-        <f>I13+1</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15">
-        <f>IF(J14&lt;&gt;"",_xlfn.CONCAT(I14,"-",J14),I14)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M14" s="15">
-        <f>M13+1</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N14" s="15"/>
       <c r="O14" s="15">
-        <f>IF(N14&lt;&gt;"",_xlfn.CONCAT(M14,"-",N14),M14)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
-        <f>A14+1</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15">
-        <f>IF(B15&lt;&gt;"",_xlfn.CONCAT(A15,"-",B15),A15)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E15" s="15">
-        <f>E14+1</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15">
-        <f>IF(F15&lt;&gt;"",_xlfn.CONCAT(E15,"-",F15),E15)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I15" s="15">
-        <f>I14+1</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="15">
-        <f>IF(J15&lt;&gt;"",_xlfn.CONCAT(I15,"-",J15),I15)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M15" s="15">
-        <f>M14+1</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N15" s="15"/>
       <c r="O15" s="15">
-        <f>IF(N15&lt;&gt;"",_xlfn.CONCAT(M15,"-",N15),M15)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
-        <f>A15+1</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C16" s="15" t="str">
-        <f>IF(B16&lt;&gt;"",_xlfn.CONCAT(A16,"-",B16),A16)</f>
+        <f t="shared" si="0"/>
         <v>6-Advanced Computer User</v>
       </c>
       <c r="E16" s="15">
-        <f>E15+1</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15">
-        <f>IF(F16&lt;&gt;"",_xlfn.CONCAT(E16,"-",F16),E16)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I16" s="15">
-        <f>I15+1</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="15">
-        <f>IF(J16&lt;&gt;"",_xlfn.CONCAT(I16,"-",J16),I16)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="M16" s="15">
-        <f>M15+1</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="N16" s="15" t="s">
         <v>158</v>
       </c>
       <c r="O16" s="15" t="str">
-        <f>IF(N16&lt;&gt;"",_xlfn.CONCAT(M16,"-",N16),M16)</f>
+        <f t="shared" si="3"/>
         <v>6-Minimal critical or all non-senstive data</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
-        <f>A16+1</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C17" s="15" t="str">
-        <f>IF(B17&lt;&gt;"",_xlfn.CONCAT(A17,"-",B17),A17)</f>
+        <f t="shared" si="0"/>
         <v>7-Some Technical Skill</v>
       </c>
       <c r="E17" s="15">
-        <f>E16+1</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>127</v>
       </c>
       <c r="G17" s="15" t="str">
-        <f>IF(F17&lt;&gt;"",_xlfn.CONCAT(E17,"-",F17),E17)</f>
+        <f t="shared" si="1"/>
         <v>7-Easy</v>
       </c>
       <c r="I17" s="15">
-        <f>I16+1</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>143</v>
       </c>
       <c r="K17" s="15" t="str">
-        <f>IF(J17&lt;&gt;"",_xlfn.CONCAT(I17,"-",J17),I17)</f>
+        <f t="shared" si="2"/>
         <v>7-Significant effect on profit</v>
       </c>
       <c r="M17" s="15">
-        <f>M16+1</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="N17" s="15" t="s">
         <v>159</v>
       </c>
       <c r="O17" s="15" t="str">
-        <f>IF(N17&lt;&gt;"",_xlfn.CONCAT(M17,"-",N17),M17)</f>
+        <f t="shared" si="3"/>
         <v>7-Extensive critical data</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
-        <f>A17+1</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15">
-        <f>IF(B18&lt;&gt;"",_xlfn.CONCAT(A18,"-",B18),A18)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E18" s="15">
-        <f>E17+1</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15">
-        <f>IF(F18&lt;&gt;"",_xlfn.CONCAT(E18,"-",F18),E18)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I18" s="15">
-        <f>I17+1</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15">
-        <f>IF(J18&lt;&gt;"",_xlfn.CONCAT(I18,"-",J18),I18)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M18" s="15">
-        <f>M17+1</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N18" s="15"/>
       <c r="O18" s="15">
-        <f>IF(N18&lt;&gt;"",_xlfn.CONCAT(M18,"-",N18),M18)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
-        <f>A18+1</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C19" s="15" t="str">
-        <f>IF(B19&lt;&gt;"",_xlfn.CONCAT(A19,"-",B19),A19)</f>
+        <f t="shared" si="0"/>
         <v>9-No Technical Skill</v>
       </c>
       <c r="E19" s="15">
-        <f>E18+1</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>128</v>
       </c>
       <c r="G19" s="15" t="str">
-        <f>IF(F19&lt;&gt;"",_xlfn.CONCAT(E19,"-",F19),E19)</f>
+        <f t="shared" si="1"/>
         <v>9-Automated tools exist</v>
       </c>
       <c r="I19" s="15">
-        <f>I18+1</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>144</v>
       </c>
       <c r="K19" s="15" t="str">
-        <f>IF(J19&lt;&gt;"",_xlfn.CONCAT(I19,"-",J19),I19)</f>
+        <f t="shared" si="2"/>
         <v>9-Bankruptcy</v>
       </c>
       <c r="M19" s="15">
-        <f>M18+1</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="N19" s="15" t="s">
         <v>160</v>
       </c>
       <c r="O19" s="15" t="str">
-        <f>IF(N19&lt;&gt;"",_xlfn.CONCAT(M19,"-",N19),M19)</f>
+        <f t="shared" si="3"/>
         <v>9-All data disclosed</v>
       </c>
     </row>
@@ -10937,7 +10168,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="15" t="str">
-        <f>IF(B23&lt;&gt;"",_xlfn.CONCAT(A23,"-",B23),A23)</f>
+        <f t="shared" ref="C23:C32" si="8">IF(B23&lt;&gt;"",_xlfn.CONCAT(A23,"-",B23),A23)</f>
         <v>0-N/A</v>
       </c>
       <c r="E23" s="15">
@@ -10947,7 +10178,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="15" t="str">
-        <f>IF(F23&lt;&gt;"",_xlfn.CONCAT(E23,"-",F23),E23)</f>
+        <f t="shared" ref="G23:G32" si="9">IF(F23&lt;&gt;"",_xlfn.CONCAT(E23,"-",F23),E23)</f>
         <v>0-N/A</v>
       </c>
       <c r="I23" s="15">
@@ -10957,7 +10188,7 @@
         <v>20</v>
       </c>
       <c r="K23" s="15" t="str">
-        <f>IF(J23&lt;&gt;"",_xlfn.CONCAT(I23,"-",J23),I23)</f>
+        <f t="shared" ref="K23:K32" si="10">IF(J23&lt;&gt;"",_xlfn.CONCAT(I23,"-",J23),I23)</f>
         <v>0-N/A</v>
       </c>
       <c r="M23" s="15">
@@ -10967,381 +10198,381 @@
         <v>20</v>
       </c>
       <c r="O23" s="15" t="str">
-        <f>IF(N23&lt;&gt;"",_xlfn.CONCAT(M23,"-",N23),M23)</f>
+        <f t="shared" ref="O23:O32" si="11">IF(N23&lt;&gt;"",_xlfn.CONCAT(M23,"-",N23),M23)</f>
         <v>0-N/A</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
-        <f t="shared" ref="A24:A32" si="0">A23+1</f>
+        <f t="shared" ref="A24:A32" si="12">A23+1</f>
         <v>1</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>102</v>
       </c>
       <c r="C24" s="15" t="str">
-        <f>IF(B24&lt;&gt;"",_xlfn.CONCAT(A24,"-",B24),A24)</f>
+        <f t="shared" si="8"/>
         <v>1-Low or no reward</v>
       </c>
       <c r="E24" s="15">
-        <f t="shared" ref="E24:E32" si="1">E23+1</f>
+        <f t="shared" ref="E24:E32" si="13">E23+1</f>
         <v>1</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>129</v>
       </c>
       <c r="G24" s="15" t="str">
-        <f>IF(F24&lt;&gt;"",_xlfn.CONCAT(E24,"-",F24),E24)</f>
+        <f t="shared" si="9"/>
         <v>1-Theoretical</v>
       </c>
       <c r="I24" s="15">
-        <f t="shared" ref="I24:I32" si="2">I23+1</f>
+        <f t="shared" ref="I24:I32" si="14">I23+1</f>
         <v>1</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>145</v>
       </c>
       <c r="K24" s="15" t="str">
-        <f>IF(J24&lt;&gt;"",_xlfn.CONCAT(I24,"-",J24),I24)</f>
+        <f t="shared" si="10"/>
         <v>1-Minimal Damage</v>
       </c>
       <c r="M24" s="15">
-        <f t="shared" ref="M24:M32" si="3">M23+1</f>
+        <f t="shared" ref="M24:M32" si="15">M23+1</f>
         <v>1</v>
       </c>
       <c r="N24" s="15" t="s">
         <v>161</v>
       </c>
       <c r="O24" s="15" t="str">
-        <f>IF(N24&lt;&gt;"",_xlfn.CONCAT(M24,"-",N24),M24)</f>
+        <f t="shared" si="11"/>
         <v>1-Minimal slightly corrupt data</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15">
-        <f>IF(B25&lt;&gt;"",_xlfn.CONCAT(A25,"-",B25),A25)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="E25" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15">
-        <f>IF(F25&lt;&gt;"",_xlfn.CONCAT(E25,"-",F25),E25)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="I25" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="J25" s="15"/>
       <c r="K25" s="15">
-        <f>IF(J25&lt;&gt;"",_xlfn.CONCAT(I25,"-",J25),I25)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="M25" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="N25" s="15"/>
       <c r="O25" s="15">
-        <f>IF(N25&lt;&gt;"",_xlfn.CONCAT(M25,"-",N25),M25)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15">
-        <f>IF(B26&lt;&gt;"",_xlfn.CONCAT(A26,"-",B26),A26)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="E26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>126</v>
       </c>
       <c r="G26" s="15" t="str">
-        <f>IF(F26&lt;&gt;"",_xlfn.CONCAT(E26,"-",F26),E26)</f>
+        <f t="shared" si="9"/>
         <v>3-Difficult</v>
       </c>
       <c r="I26" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="15">
-        <f>IF(J26&lt;&gt;"",_xlfn.CONCAT(I26,"-",J26),I26)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="M26" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="N26" s="15" t="s">
         <v>162</v>
       </c>
       <c r="O26" s="15" t="str">
-        <f>IF(N26&lt;&gt;"",_xlfn.CONCAT(M26,"-",N26),M26)</f>
+        <f t="shared" si="11"/>
         <v>3-Minimal seriously corrupt data</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>104</v>
       </c>
       <c r="C27" s="15" t="str">
-        <f>IF(B27&lt;&gt;"",_xlfn.CONCAT(A27,"-",B27),A27)</f>
+        <f t="shared" si="8"/>
         <v>4-Possible Reward</v>
       </c>
       <c r="E27" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15">
-        <f>IF(F27&lt;&gt;"",_xlfn.CONCAT(E27,"-",F27),E27)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="I27" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="J27" s="15" t="s">
         <v>146</v>
       </c>
       <c r="K27" s="15" t="str">
-        <f>IF(J27&lt;&gt;"",_xlfn.CONCAT(I27,"-",J27),I27)</f>
+        <f t="shared" si="10"/>
         <v>4-Loss of major accounts</v>
       </c>
       <c r="M27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="N27" s="15"/>
       <c r="O27" s="15">
-        <f>IF(N27&lt;&gt;"",_xlfn.CONCAT(M27,"-",N27),M27)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15">
-        <f>IF(B28&lt;&gt;"",_xlfn.CONCAT(A28,"-",B28),A28)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="E28" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>127</v>
       </c>
       <c r="G28" s="15" t="str">
-        <f>IF(F28&lt;&gt;"",_xlfn.CONCAT(E28,"-",F28),E28)</f>
+        <f t="shared" si="9"/>
         <v>5-Easy</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>147</v>
       </c>
       <c r="K28" s="15" t="str">
-        <f>IF(J28&lt;&gt;"",_xlfn.CONCAT(I28,"-",J28),I28)</f>
+        <f t="shared" si="10"/>
         <v>5-Loss of goodwill</v>
       </c>
       <c r="M28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="N28" s="15" t="s">
         <v>163</v>
       </c>
       <c r="O28" s="15" t="str">
-        <f>IF(N28&lt;&gt;"",_xlfn.CONCAT(M28,"-",N28),M28)</f>
+        <f t="shared" si="11"/>
         <v>5-Extensive Slightly corrupt data</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15">
-        <f>IF(B29&lt;&gt;"",_xlfn.CONCAT(A29,"-",B29),A29)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="E29" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15">
-        <f>IF(F29&lt;&gt;"",_xlfn.CONCAT(E29,"-",F29),E29)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="J29" s="15"/>
       <c r="K29" s="15">
-        <f>IF(J29&lt;&gt;"",_xlfn.CONCAT(I29,"-",J29),I29)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="N29" s="15"/>
       <c r="O29" s="15">
-        <f>IF(N29&lt;&gt;"",_xlfn.CONCAT(M29,"-",N29),M29)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15">
-        <f>IF(B30&lt;&gt;"",_xlfn.CONCAT(A30,"-",B30),A30)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="E30" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15">
-        <f>IF(F30&lt;&gt;"",_xlfn.CONCAT(E30,"-",F30),E30)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="I30" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="15">
-        <f>IF(J30&lt;&gt;"",_xlfn.CONCAT(I30,"-",J30),I30)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="M30" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="N30" s="15" t="s">
         <v>164</v>
       </c>
       <c r="O30" s="15" t="str">
-        <f>IF(N30&lt;&gt;"",_xlfn.CONCAT(M30,"-",N30),M30)</f>
+        <f t="shared" si="11"/>
         <v>7-Extensive seriously corrupt data</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15">
-        <f>IF(B31&lt;&gt;"",_xlfn.CONCAT(A31,"-",B31),A31)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="E31" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15">
-        <f>IF(F31&lt;&gt;"",_xlfn.CONCAT(E31,"-",F31),E31)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="I31" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="15">
-        <f>IF(J31&lt;&gt;"",_xlfn.CONCAT(I31,"-",J31),I31)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="M31" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N31" s="15"/>
       <c r="O31" s="15">
-        <f>IF(N31&lt;&gt;"",_xlfn.CONCAT(M31,"-",N31),M31)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C32" s="15" t="str">
-        <f>IF(B32&lt;&gt;"",_xlfn.CONCAT(A32,"-",B32),A32)</f>
+        <f t="shared" si="8"/>
         <v>9-High Reward</v>
       </c>
       <c r="E32" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>128</v>
       </c>
       <c r="G32" s="15" t="str">
-        <f>IF(F32&lt;&gt;"",_xlfn.CONCAT(E32,"-",F32),E32)</f>
+        <f t="shared" si="9"/>
         <v>9-Automated tools exist</v>
       </c>
       <c r="I32" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="J32" s="15" t="s">
         <v>148</v>
       </c>
       <c r="K32" s="15" t="str">
-        <f>IF(J32&lt;&gt;"",_xlfn.CONCAT(I32,"-",J32),I32)</f>
+        <f t="shared" si="10"/>
         <v>9-Brand damage</v>
       </c>
       <c r="M32" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="N32" s="15" t="s">
         <v>165</v>
       </c>
       <c r="O32" s="15" t="str">
-        <f>IF(N32&lt;&gt;"",_xlfn.CONCAT(M32,"-",N32),M32)</f>
+        <f t="shared" si="11"/>
         <v>9-All data totally corrupt</v>
       </c>
     </row>
@@ -11413,7 +10644,7 @@
         <v>20</v>
       </c>
       <c r="C36" s="15" t="str">
-        <f>IF(B36&lt;&gt;"",_xlfn.CONCAT(A36,"-",B36),A36)</f>
+        <f t="shared" ref="C36:C45" si="16">IF(B36&lt;&gt;"",_xlfn.CONCAT(A36,"-",B36),A36)</f>
         <v>0-N/A</v>
       </c>
       <c r="E36" s="15">
@@ -11423,7 +10654,7 @@
         <v>20</v>
       </c>
       <c r="G36" s="15" t="str">
-        <f>IF(F36&lt;&gt;"",_xlfn.CONCAT(E36,"-",F36),E36)</f>
+        <f t="shared" ref="G36:G45" si="17">IF(F36&lt;&gt;"",_xlfn.CONCAT(E36,"-",F36),E36)</f>
         <v>0-N/A</v>
       </c>
       <c r="I36" s="15">
@@ -11433,7 +10664,7 @@
         <v>20</v>
       </c>
       <c r="K36" s="15" t="str">
-        <f>IF(J36&lt;&gt;"",_xlfn.CONCAT(I36,"-",J36),I36)</f>
+        <f t="shared" ref="K36:K45" si="18">IF(J36&lt;&gt;"",_xlfn.CONCAT(I36,"-",J36),I36)</f>
         <v>0-N/A</v>
       </c>
       <c r="M36" s="15">
@@ -11443,379 +10674,379 @@
         <v>20</v>
       </c>
       <c r="O36" s="15" t="str">
-        <f>IF(N36&lt;&gt;"",_xlfn.CONCAT(M36,"-",N36),M36)</f>
+        <f t="shared" ref="O36:O45" si="19">IF(N36&lt;&gt;"",_xlfn.CONCAT(M36,"-",N36),M36)</f>
         <v>0-N/A</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
-        <f t="shared" ref="A37:A45" si="4">A36+1</f>
+        <f t="shared" ref="A37:A45" si="20">A36+1</f>
         <v>1</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>105</v>
       </c>
       <c r="C37" s="15" t="str">
-        <f>IF(B37&lt;&gt;"",_xlfn.CONCAT(A37,"-",B37),A37)</f>
+        <f t="shared" si="16"/>
         <v>1-Full access or expensive resources</v>
       </c>
       <c r="E37" s="15">
-        <f t="shared" ref="E37:E45" si="5">E36+1</f>
+        <f t="shared" ref="E37:E45" si="21">E36+1</f>
         <v>1</v>
       </c>
       <c r="F37" s="15" t="s">
         <v>138</v>
       </c>
       <c r="G37" s="15" t="str">
-        <f>IF(F37&lt;&gt;"",_xlfn.CONCAT(E37,"-",F37),E37)</f>
+        <f t="shared" si="17"/>
         <v>1-Unknown</v>
       </c>
       <c r="I37" s="15">
-        <f t="shared" ref="I37:I45" si="6">I36+1</f>
+        <f t="shared" ref="I37:I45" si="22">I36+1</f>
         <v>1</v>
       </c>
       <c r="J37" s="15"/>
       <c r="K37" s="15">
-        <f>IF(J37&lt;&gt;"",_xlfn.CONCAT(I37,"-",J37),I37)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="M37" s="15">
-        <f t="shared" ref="M37:M45" si="7">M36+1</f>
+        <f t="shared" ref="M37:M45" si="23">M36+1</f>
         <v>1</v>
       </c>
       <c r="N37" s="15" t="s">
         <v>166</v>
       </c>
       <c r="O37" s="15" t="str">
-        <f>IF(N37&lt;&gt;"",_xlfn.CONCAT(M37,"-",N37),M37)</f>
+        <f t="shared" si="19"/>
         <v>1-Minimal secondary service interruption</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15">
-        <f>IF(B38&lt;&gt;"",_xlfn.CONCAT(A38,"-",B38),A38)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E38" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="15">
-        <f>IF(F38&lt;&gt;"",_xlfn.CONCAT(E38,"-",F38),E38)</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="I38" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="J38" s="15" t="s">
         <v>149</v>
       </c>
       <c r="K38" s="15" t="str">
-        <f>IF(J38&lt;&gt;"",_xlfn.CONCAT(I38,"-",J38),I38)</f>
+        <f t="shared" si="18"/>
         <v>2-Minor violation</v>
       </c>
       <c r="M38" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="N38" s="15"/>
       <c r="O38" s="15">
-        <f>IF(N38&lt;&gt;"",_xlfn.CONCAT(M38,"-",N38),M38)</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="15">
-        <f>IF(B39&lt;&gt;"",_xlfn.CONCAT(A39,"-",B39),A39)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="E39" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="15">
-        <f>IF(F39&lt;&gt;"",_xlfn.CONCAT(E39,"-",F39),E39)</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="I39" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="J39" s="15"/>
       <c r="K39" s="15">
-        <f>IF(J39&lt;&gt;"",_xlfn.CONCAT(I39,"-",J39),I39)</f>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="M39" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="N39" s="15"/>
       <c r="O39" s="15">
-        <f>IF(N39&lt;&gt;"",_xlfn.CONCAT(M39,"-",N39),M39)</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>106</v>
       </c>
       <c r="C40" s="15" t="str">
-        <f>IF(B40&lt;&gt;"",_xlfn.CONCAT(A40,"-",B40),A40)</f>
+        <f t="shared" si="16"/>
         <v>4-Specialised access or resources</v>
       </c>
       <c r="E40" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>130</v>
       </c>
       <c r="G40" s="15" t="str">
-        <f>IF(F40&lt;&gt;"",_xlfn.CONCAT(E40,"-",F40),E40)</f>
+        <f t="shared" si="17"/>
         <v>4-Hidden</v>
       </c>
       <c r="I40" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="J40" s="15"/>
       <c r="K40" s="15">
-        <f>IF(J40&lt;&gt;"",_xlfn.CONCAT(I40,"-",J40),I40)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="M40" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="N40" s="15"/>
       <c r="O40" s="15">
-        <f>IF(N40&lt;&gt;"",_xlfn.CONCAT(M40,"-",N40),M40)</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="15">
-        <f>IF(B41&lt;&gt;"",_xlfn.CONCAT(A41,"-",B41),A41)</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="E41" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="F41" s="15"/>
       <c r="G41" s="15">
-        <f>IF(F41&lt;&gt;"",_xlfn.CONCAT(E41,"-",F41),E41)</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="I41" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="J41" s="15" t="s">
         <v>150</v>
       </c>
       <c r="K41" s="15" t="str">
-        <f>IF(J41&lt;&gt;"",_xlfn.CONCAT(I41,"-",J41),I41)</f>
+        <f t="shared" si="18"/>
         <v>5-Clear violation</v>
       </c>
       <c r="M41" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="N41" s="15" t="s">
         <v>167</v>
       </c>
       <c r="O41" s="15" t="str">
-        <f>IF(N41&lt;&gt;"",_xlfn.CONCAT(M41,"-",N41),M41)</f>
+        <f t="shared" si="19"/>
         <v>5-Minimal primary or extensive secondary interruption</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="15">
-        <f>IF(B42&lt;&gt;"",_xlfn.CONCAT(A42,"-",B42),A42)</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="E42" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>131</v>
       </c>
       <c r="G42" s="15" t="str">
-        <f>IF(F42&lt;&gt;"",_xlfn.CONCAT(E42,"-",F42),E42)</f>
+        <f t="shared" si="17"/>
         <v>6-Obvious</v>
       </c>
       <c r="I42" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="J42" s="15"/>
       <c r="K42" s="15">
-        <f>IF(J42&lt;&gt;"",_xlfn.CONCAT(I42,"-",J42),I42)</f>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="M42" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="N42" s="15"/>
       <c r="O42" s="15">
-        <f>IF(N42&lt;&gt;"",_xlfn.CONCAT(M42,"-",N42),M42)</f>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>107</v>
       </c>
       <c r="C43" s="15" t="str">
-        <f>IF(B43&lt;&gt;"",_xlfn.CONCAT(A43,"-",B43),A43)</f>
+        <f t="shared" si="16"/>
         <v>7-Some access or resources</v>
       </c>
       <c r="E43" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="15">
-        <f>IF(F43&lt;&gt;"",_xlfn.CONCAT(E43,"-",F43),E43)</f>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="I43" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="J43" s="15" t="s">
         <v>151</v>
       </c>
       <c r="K43" s="15" t="str">
-        <f>IF(J43&lt;&gt;"",_xlfn.CONCAT(I43,"-",J43),I43)</f>
+        <f t="shared" si="18"/>
         <v>7-High profile violation</v>
       </c>
       <c r="M43" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="N43" s="15" t="s">
         <v>168</v>
       </c>
       <c r="O43" s="15" t="str">
-        <f>IF(N43&lt;&gt;"",_xlfn.CONCAT(M43,"-",N43),M43)</f>
+        <f t="shared" si="19"/>
         <v>7-Extensive primary services interrupted</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="15">
-        <f>IF(B44&lt;&gt;"",_xlfn.CONCAT(A44,"-",B44),A44)</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="E44" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="F44" s="15"/>
       <c r="G44" s="15">
-        <f>IF(F44&lt;&gt;"",_xlfn.CONCAT(E44,"-",F44),E44)</f>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="I44" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="J44" s="15"/>
       <c r="K44" s="15">
-        <f>IF(J44&lt;&gt;"",_xlfn.CONCAT(I44,"-",J44),I44)</f>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="M44" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="N44" s="15"/>
       <c r="O44" s="15">
-        <f>IF(N44&lt;&gt;"",_xlfn.CONCAT(M44,"-",N44),M44)</f>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C45" s="15" t="str">
-        <f>IF(B45&lt;&gt;"",_xlfn.CONCAT(A45,"-",B45),A45)</f>
+        <f t="shared" si="16"/>
         <v>9-No access or resources</v>
       </c>
       <c r="E45" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="F45" s="15" t="s">
         <v>132</v>
       </c>
       <c r="G45" s="15" t="str">
-        <f>IF(F45&lt;&gt;"",_xlfn.CONCAT(E45,"-",F45),E45)</f>
+        <f t="shared" si="17"/>
         <v>9-Public Knowledge</v>
       </c>
       <c r="I45" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="J45" s="15"/>
       <c r="K45" s="15">
-        <f>IF(J45&lt;&gt;"",_xlfn.CONCAT(I45,"-",J45),I45)</f>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="M45" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="N45" s="15" t="s">
         <v>169</v>
       </c>
       <c r="O45" s="15" t="str">
-        <f>IF(N45&lt;&gt;"",_xlfn.CONCAT(M45,"-",N45),M45)</f>
+        <f t="shared" si="19"/>
         <v>9-All services lost</v>
       </c>
     </row>
@@ -11887,7 +11118,7 @@
         <v>20</v>
       </c>
       <c r="C49" s="15" t="str">
-        <f>IF(B49&lt;&gt;"",_xlfn.CONCAT(A49,"-",B49),A49)</f>
+        <f t="shared" ref="C49:C58" si="24">IF(B49&lt;&gt;"",_xlfn.CONCAT(A49,"-",B49),A49)</f>
         <v>0-N/A</v>
       </c>
       <c r="E49" s="15">
@@ -11897,7 +11128,7 @@
         <v>20</v>
       </c>
       <c r="G49" s="15" t="str">
-        <f>IF(F49&lt;&gt;"",_xlfn.CONCAT(E49,"-",F49),E49)</f>
+        <f t="shared" ref="G49:G58" si="25">IF(F49&lt;&gt;"",_xlfn.CONCAT(E49,"-",F49),E49)</f>
         <v>0-N/A</v>
       </c>
       <c r="I49" s="15">
@@ -11907,7 +11138,7 @@
         <v>20</v>
       </c>
       <c r="K49" s="15" t="str">
-        <f>IF(J49&lt;&gt;"",_xlfn.CONCAT(I49,"-",J49),I49)</f>
+        <f t="shared" ref="K49:K58" si="26">IF(J49&lt;&gt;"",_xlfn.CONCAT(I49,"-",J49),I49)</f>
         <v>0-N/A</v>
       </c>
       <c r="M49" s="15">
@@ -11917,381 +11148,381 @@
         <v>20</v>
       </c>
       <c r="O49" s="15" t="str">
-        <f>IF(N49&lt;&gt;"",_xlfn.CONCAT(M49,"-",N49),M49)</f>
+        <f t="shared" ref="O49:O58" si="27">IF(N49&lt;&gt;"",_xlfn.CONCAT(M49,"-",N49),M49)</f>
         <v>0-N/A</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
-        <f t="shared" ref="A50:A58" si="8">A49+1</f>
+        <f t="shared" ref="A50:A58" si="28">A49+1</f>
         <v>1</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>204</v>
       </c>
       <c r="C50" s="15" t="str">
-        <f>IF(B50&lt;&gt;"",_xlfn.CONCAT(A50,"-",B50),A50)</f>
+        <f t="shared" si="24"/>
         <v>1-Developers or system administrators</v>
       </c>
       <c r="E50" s="15">
-        <f t="shared" ref="E50:E58" si="9">E49+1</f>
+        <f t="shared" ref="E50:E58" si="29">E49+1</f>
         <v>1</v>
       </c>
       <c r="F50" s="15" t="s">
         <v>133</v>
       </c>
       <c r="G50" s="15" t="str">
-        <f>IF(F50&lt;&gt;"",_xlfn.CONCAT(E50,"-",F50),E50)</f>
+        <f t="shared" si="25"/>
         <v>1-Active Detection (Application/SIEM)</v>
       </c>
       <c r="I50" s="15">
-        <f t="shared" ref="I50:I58" si="10">I49+1</f>
+        <f t="shared" ref="I50:I58" si="30">I49+1</f>
         <v>1</v>
       </c>
       <c r="J50" s="15"/>
       <c r="K50" s="15">
-        <f>IF(J50&lt;&gt;"",_xlfn.CONCAT(I50,"-",J50),I50)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="M50" s="15">
-        <f t="shared" ref="M50:M58" si="11">M49+1</f>
+        <f t="shared" ref="M50:M58" si="31">M49+1</f>
         <v>1</v>
       </c>
       <c r="N50" s="15" t="s">
         <v>170</v>
       </c>
       <c r="O50" s="15" t="str">
-        <f>IF(N50&lt;&gt;"",_xlfn.CONCAT(M50,"-",N50),M50)</f>
+        <f t="shared" si="27"/>
         <v>1-Fully traceable to threat actor</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="15">
-        <f>IF(B51&lt;&gt;"",_xlfn.CONCAT(A51,"-",B51),A51)</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="E51" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="F51" s="15"/>
       <c r="G51" s="15">
-        <f>IF(F51&lt;&gt;"",_xlfn.CONCAT(E51,"-",F51),E51)</f>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="I51" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="J51" s="15"/>
       <c r="K51" s="15">
-        <f>IF(J51&lt;&gt;"",_xlfn.CONCAT(I51,"-",J51),I51)</f>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="M51" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="N51" s="15"/>
       <c r="O51" s="15">
-        <f>IF(N51&lt;&gt;"",_xlfn.CONCAT(M51,"-",N51),M51)</f>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="B52" s="15"/>
       <c r="C52" s="15">
-        <f>IF(B52&lt;&gt;"",_xlfn.CONCAT(A52,"-",B52),A52)</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="E52" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="F52" s="15" t="s">
         <v>134</v>
       </c>
       <c r="G52" s="15" t="str">
-        <f>IF(F52&lt;&gt;"",_xlfn.CONCAT(E52,"-",F52),E52)</f>
+        <f t="shared" si="25"/>
         <v>3-Logged and Reviewed</v>
       </c>
       <c r="I52" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="J52" s="15" t="s">
         <v>152</v>
       </c>
       <c r="K52" s="15" t="str">
-        <f>IF(J52&lt;&gt;"",_xlfn.CONCAT(I52,"-",J52),I52)</f>
+        <f t="shared" si="26"/>
         <v>3-One individual</v>
       </c>
       <c r="M52" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="N52" s="15"/>
       <c r="O52" s="15">
-        <f>IF(N52&lt;&gt;"",_xlfn.CONCAT(M52,"-",N52),M52)</f>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>113</v>
       </c>
       <c r="C53" s="15" t="str">
-        <f>IF(B53&lt;&gt;"",_xlfn.CONCAT(A53,"-",B53),A53)</f>
+        <f t="shared" si="24"/>
         <v>4-Intranet Users</v>
       </c>
       <c r="E53" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="15">
-        <f>IF(F53&lt;&gt;"",_xlfn.CONCAT(E53,"-",F53),E53)</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="I53" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="J53" s="15"/>
       <c r="K53" s="15">
-        <f>IF(J53&lt;&gt;"",_xlfn.CONCAT(I53,"-",J53),I53)</f>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M53" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="N53" s="15"/>
       <c r="O53" s="15">
-        <f>IF(N53&lt;&gt;"",_xlfn.CONCAT(M53,"-",N53),M53)</f>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>112</v>
       </c>
       <c r="C54" s="15" t="str">
-        <f>IF(B54&lt;&gt;"",_xlfn.CONCAT(A54,"-",B54),A54)</f>
+        <f t="shared" si="24"/>
         <v>5-Partners</v>
       </c>
       <c r="E54" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="15">
-        <f>IF(F54&lt;&gt;"",_xlfn.CONCAT(E54,"-",F54),E54)</f>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="I54" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="J54" s="15" t="s">
         <v>153</v>
       </c>
       <c r="K54" s="15" t="str">
-        <f>IF(J54&lt;&gt;"",_xlfn.CONCAT(I54,"-",J54),I54)</f>
+        <f t="shared" si="26"/>
         <v>5-Hundreds of people</v>
       </c>
       <c r="M54" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="N54" s="15"/>
       <c r="O54" s="15">
-        <f>IF(N54&lt;&gt;"",_xlfn.CONCAT(M54,"-",N54),M54)</f>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>111</v>
       </c>
       <c r="C55" s="15" t="str">
-        <f>IF(B55&lt;&gt;"",_xlfn.CONCAT(A55,"-",B55),A55)</f>
+        <f t="shared" si="24"/>
         <v>6-Authenticated users</v>
       </c>
       <c r="E55" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="15">
-        <f>IF(F55&lt;&gt;"",_xlfn.CONCAT(E55,"-",F55),E55)</f>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="I55" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="J55" s="15"/>
       <c r="K55" s="15">
-        <f>IF(J55&lt;&gt;"",_xlfn.CONCAT(I55,"-",J55),I55)</f>
+        <f t="shared" si="26"/>
         <v>6</v>
       </c>
       <c r="M55" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>6</v>
       </c>
       <c r="N55" s="15"/>
       <c r="O55" s="15">
-        <f>IF(N55&lt;&gt;"",_xlfn.CONCAT(M55,"-",N55),M55)</f>
+        <f t="shared" si="27"/>
         <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="15">
-        <f>IF(B56&lt;&gt;"",_xlfn.CONCAT(A56,"-",B56),A56)</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="E56" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>7</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="15">
-        <f>IF(F56&lt;&gt;"",_xlfn.CONCAT(E56,"-",F56),E56)</f>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="I56" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="J56" s="15" t="s">
         <v>154</v>
       </c>
       <c r="K56" s="15" t="str">
-        <f>IF(J56&lt;&gt;"",_xlfn.CONCAT(I56,"-",J56),I56)</f>
+        <f t="shared" si="26"/>
         <v>7-Thousands of people</v>
       </c>
       <c r="M56" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>7</v>
       </c>
       <c r="N56" s="15" t="s">
         <v>171</v>
       </c>
       <c r="O56" s="15" t="str">
-        <f>IF(N56&lt;&gt;"",_xlfn.CONCAT(M56,"-",N56),M56)</f>
+        <f t="shared" si="27"/>
         <v>7-Possible traceable to threat actor</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
       <c r="B57" s="15"/>
       <c r="C57" s="15">
-        <f>IF(B57&lt;&gt;"",_xlfn.CONCAT(A57,"-",B57),A57)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="E57" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
       <c r="F57" s="15" t="s">
         <v>135</v>
       </c>
       <c r="G57" s="15" t="str">
-        <f>IF(F57&lt;&gt;"",_xlfn.CONCAT(E57,"-",F57),E57)</f>
+        <f t="shared" si="25"/>
         <v>8-Logged without review</v>
       </c>
       <c r="I57" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="J57" s="15"/>
       <c r="K57" s="15">
-        <f>IF(J57&lt;&gt;"",_xlfn.CONCAT(I57,"-",J57),I57)</f>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="M57" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
       <c r="N57" s="15"/>
       <c r="O57" s="15">
-        <f>IF(N57&lt;&gt;"",_xlfn.CONCAT(M57,"-",N57),M57)</f>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>110</v>
       </c>
       <c r="C58" s="15" t="str">
-        <f>IF(B58&lt;&gt;"",_xlfn.CONCAT(A58,"-",B58),A58)</f>
+        <f t="shared" si="24"/>
         <v>9-Anonymous internet users</v>
       </c>
       <c r="E58" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
       <c r="F58" s="15" t="s">
         <v>136</v>
       </c>
       <c r="G58" s="15" t="str">
-        <f>IF(F58&lt;&gt;"",_xlfn.CONCAT(E58,"-",F58),E58)</f>
+        <f t="shared" si="25"/>
         <v>9-Not logged or monitored</v>
       </c>
       <c r="I58" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>9</v>
       </c>
       <c r="J58" s="15" t="s">
         <v>155</v>
       </c>
       <c r="K58" s="15" t="str">
-        <f>IF(J58&lt;&gt;"",_xlfn.CONCAT(I58,"-",J58),I58)</f>
+        <f t="shared" si="26"/>
         <v>9-Millions of people</v>
       </c>
       <c r="M58" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>9</v>
       </c>
       <c r="N58" s="15" t="s">
         <v>172</v>
       </c>
       <c r="O58" s="15" t="str">
-        <f>IF(N58&lt;&gt;"",_xlfn.CONCAT(M58,"-",N58),M58)</f>
+        <f t="shared" si="27"/>
         <v>9-Completely anonymous</v>
       </c>
     </row>
